--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16608" windowHeight="9432" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="13" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$170</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="434">
   <si>
     <t>编号</t>
   </si>
@@ -7022,12 +7022,7 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7335,14 +7330,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14" style="195" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7528,27 +7523,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="240" customWidth="1"/>
-    <col min="7" max="7" width="77.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="240" customWidth="1"/>
+    <col min="7" max="7" width="77.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="13" width="9" style="139"/>
-    <col min="14" max="14" width="23.77734375" style="139" customWidth="1"/>
+    <col min="14" max="14" width="23.75" style="139" customWidth="1"/>
     <col min="15" max="16" width="9" style="139"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
@@ -7558,7 +7554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="28.8">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="27">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="237" customFormat="1" ht="86.4">
+    <row r="3" spans="1:16" s="237" customFormat="1" ht="81">
       <c r="A3" s="229">
         <v>1</v>
       </c>
@@ -7646,7 +7642,7 @@
       </c>
       <c r="P3" s="236"/>
     </row>
-    <row r="4" spans="1:16" s="75" customFormat="1" ht="86.4">
+    <row r="4" spans="1:16" s="75" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="282">
         <v>2</v>
       </c>
@@ -7684,7 +7680,7 @@
       </c>
       <c r="P4" s="211"/>
     </row>
-    <row r="5" spans="1:16" s="75" customFormat="1" ht="57.6">
+    <row r="5" spans="1:16" s="75" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="282">
         <v>3</v>
       </c>
@@ -7724,7 +7720,7 @@
       </c>
       <c r="P5" s="211"/>
     </row>
-    <row r="6" spans="1:16" s="212" customFormat="1" ht="57.6">
+    <row r="6" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="282">
         <v>4</v>
       </c>
@@ -7766,7 +7762,7 @@
       </c>
       <c r="P6" s="211"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="43.2">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="27">
       <c r="A7" s="282">
         <v>5</v>
       </c>
@@ -7789,9 +7785,7 @@
         <v>246</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="216" t="s">
-        <v>67</v>
-      </c>
+      <c r="I7" s="216"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="216" t="s">
@@ -7800,11 +7794,11 @@
       <c r="M7" s="199"/>
       <c r="N7" s="199"/>
       <c r="O7" s="157">
-        <v>42631</v>
+        <v>42637</v>
       </c>
       <c r="P7" s="200"/>
     </row>
-    <row r="8" spans="1:16" s="75" customFormat="1" ht="28.8">
+    <row r="8" spans="1:16" s="75" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="282">
         <v>6</v>
       </c>
@@ -7844,7 +7838,7 @@
       </c>
       <c r="P8" s="211"/>
     </row>
-    <row r="9" spans="1:16" s="75" customFormat="1" ht="43.2">
+    <row r="9" spans="1:16" s="75" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="282">
         <v>7</v>
       </c>
@@ -7880,7 +7874,7 @@
       <c r="O9" s="207"/>
       <c r="P9" s="211"/>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1" ht="43.2">
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="40.5">
       <c r="A10" s="282">
         <v>8</v>
       </c>
@@ -7914,7 +7908,7 @@
       <c r="O10" s="157"/>
       <c r="P10" s="200"/>
     </row>
-    <row r="11" spans="1:16" s="101" customFormat="1" ht="43.2">
+    <row r="11" spans="1:16" s="101" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="282">
         <v>9</v>
       </c>
@@ -7952,7 +7946,7 @@
       <c r="O11" s="95"/>
       <c r="P11" s="100"/>
     </row>
-    <row r="12" spans="1:16" s="75" customFormat="1" ht="57.6">
+    <row r="12" spans="1:16" s="75" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="282">
         <v>10</v>
       </c>
@@ -7988,7 +7982,7 @@
       <c r="O12" s="207"/>
       <c r="P12" s="211"/>
     </row>
-    <row r="13" spans="1:16" s="75" customFormat="1" ht="28.8">
+    <row r="13" spans="1:16" s="75" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="282">
         <v>11</v>
       </c>
@@ -8024,7 +8018,7 @@
       <c r="O13" s="207"/>
       <c r="P13" s="211"/>
     </row>
-    <row r="14" spans="1:16" s="212" customFormat="1" ht="86.4">
+    <row r="14" spans="1:16" s="212" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="282">
         <v>12</v>
       </c>
@@ -8062,7 +8056,7 @@
       </c>
       <c r="P14" s="200"/>
     </row>
-    <row r="15" spans="1:16" s="212" customFormat="1" ht="72">
+    <row r="15" spans="1:16" s="212" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="282">
         <v>13</v>
       </c>
@@ -8100,7 +8094,7 @@
       </c>
       <c r="P15" s="200"/>
     </row>
-    <row r="16" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="16" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A16" s="282">
         <v>14</v>
       </c>
@@ -8138,7 +8132,7 @@
       </c>
       <c r="P16" s="200"/>
     </row>
-    <row r="17" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="17" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="282">
         <v>15</v>
       </c>
@@ -8176,7 +8170,7 @@
       </c>
       <c r="P17" s="200"/>
     </row>
-    <row r="18" spans="1:16" s="212" customFormat="1" ht="57.6">
+    <row r="18" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A18" s="282">
         <v>16</v>
       </c>
@@ -8216,7 +8210,7 @@
       </c>
       <c r="P18" s="200"/>
     </row>
-    <row r="19" spans="1:16" s="53" customFormat="1" ht="259.2">
+    <row r="19" spans="1:16" s="53" customFormat="1" ht="229.5">
       <c r="A19" s="282">
         <v>17</v>
       </c>
@@ -8250,7 +8244,7 @@
       <c r="O19" s="157"/>
       <c r="P19" s="200"/>
     </row>
-    <row r="20" spans="1:16" s="53" customFormat="1" ht="72">
+    <row r="20" spans="1:16" s="53" customFormat="1" ht="67.5">
       <c r="A20" s="282">
         <v>18</v>
       </c>
@@ -8284,7 +8278,7 @@
       <c r="O20" s="157"/>
       <c r="P20" s="200"/>
     </row>
-    <row r="21" spans="1:16" s="53" customFormat="1" ht="216">
+    <row r="21" spans="1:16" s="53" customFormat="1" ht="189">
       <c r="A21" s="282">
         <v>19</v>
       </c>
@@ -8318,7 +8312,7 @@
       <c r="O21" s="157"/>
       <c r="P21" s="200"/>
     </row>
-    <row r="22" spans="1:16" s="212" customFormat="1" ht="100.8">
+    <row r="22" spans="1:16" s="212" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="282">
         <v>20</v>
       </c>
@@ -8356,7 +8350,7 @@
       </c>
       <c r="P22" s="200"/>
     </row>
-    <row r="23" spans="1:16" s="212" customFormat="1" ht="115.2">
+    <row r="23" spans="1:16" s="212" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="282">
         <v>21</v>
       </c>
@@ -8394,7 +8388,7 @@
       </c>
       <c r="P23" s="211"/>
     </row>
-    <row r="24" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="24" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="282">
         <v>22</v>
       </c>
@@ -8432,7 +8426,7 @@
       </c>
       <c r="P24" s="211"/>
     </row>
-    <row r="25" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="25" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="282">
         <v>23</v>
       </c>
@@ -8472,7 +8466,7 @@
       </c>
       <c r="P25" s="200"/>
     </row>
-    <row r="26" spans="1:16" s="75" customFormat="1" ht="57.6">
+    <row r="26" spans="1:16" s="75" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="282">
         <v>24</v>
       </c>
@@ -8506,7 +8500,7 @@
       <c r="O26" s="207"/>
       <c r="P26" s="211"/>
     </row>
-    <row r="27" spans="1:16" ht="158.4">
+    <row r="27" spans="1:16" ht="135">
       <c r="A27" s="282">
         <v>25</v>
       </c>
@@ -8546,7 +8540,7 @@
       </c>
       <c r="P27" s="200"/>
     </row>
-    <row r="28" spans="1:16" ht="244.8">
+    <row r="28" spans="1:16" ht="229.5">
       <c r="A28" s="282">
         <v>26</v>
       </c>
@@ -8582,7 +8576,7 @@
       <c r="O28" s="157"/>
       <c r="P28" s="200"/>
     </row>
-    <row r="29" spans="1:16" s="53" customFormat="1" ht="158.4">
+    <row r="29" spans="1:16" s="53" customFormat="1" ht="135">
       <c r="A29" s="282">
         <v>27</v>
       </c>
@@ -8612,7 +8606,7 @@
       <c r="O29" s="157"/>
       <c r="P29" s="200"/>
     </row>
-    <row r="30" spans="1:16" s="272" customFormat="1" ht="72">
+    <row r="30" spans="1:16" s="272" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="282">
         <v>28</v>
       </c>
@@ -8646,7 +8640,7 @@
       <c r="O30" s="266"/>
       <c r="P30" s="271"/>
     </row>
-    <row r="31" spans="1:16" s="272" customFormat="1" ht="72">
+    <row r="31" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A31" s="282">
         <v>29</v>
       </c>
@@ -8682,7 +8676,7 @@
       <c r="O31" s="266"/>
       <c r="P31" s="271"/>
     </row>
-    <row r="32" spans="1:16" s="212" customFormat="1" ht="57.6">
+    <row r="32" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="282">
         <v>30</v>
       </c>
@@ -8720,7 +8714,7 @@
       </c>
       <c r="P32" s="211"/>
     </row>
-    <row r="33" spans="1:16" s="212" customFormat="1" ht="57.6">
+    <row r="33" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="282">
         <v>31</v>
       </c>
@@ -8758,7 +8752,7 @@
       </c>
       <c r="P33" s="211"/>
     </row>
-    <row r="34" spans="1:16" s="212" customFormat="1" ht="100.8">
+    <row r="34" spans="1:16" s="212" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="282">
         <v>32</v>
       </c>
@@ -8796,7 +8790,7 @@
       </c>
       <c r="P34" s="211"/>
     </row>
-    <row r="35" spans="1:16" s="212" customFormat="1" ht="72">
+    <row r="35" spans="1:16" s="212" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="282">
         <v>33</v>
       </c>
@@ -8834,7 +8828,7 @@
       </c>
       <c r="P35" s="211"/>
     </row>
-    <row r="36" spans="1:16" s="75" customFormat="1">
+    <row r="36" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A36" s="282">
         <v>34</v>
       </c>
@@ -8872,7 +8866,7 @@
       <c r="O36" s="207"/>
       <c r="P36" s="211"/>
     </row>
-    <row r="37" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="37" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="282">
         <v>35</v>
       </c>
@@ -8914,7 +8908,7 @@
       </c>
       <c r="P37" s="211"/>
     </row>
-    <row r="38" spans="1:16" s="212" customFormat="1">
+    <row r="38" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A38" s="282">
         <v>36</v>
       </c>
@@ -8957,7 +8951,7 @@
       </c>
       <c r="P38" s="211"/>
     </row>
-    <row r="39" spans="1:16" s="212" customFormat="1">
+    <row r="39" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A39" s="282">
         <v>37</v>
       </c>
@@ -8993,7 +8987,7 @@
       <c r="O39" s="207"/>
       <c r="P39" s="211"/>
     </row>
-    <row r="40" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="40" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="282">
         <v>38</v>
       </c>
@@ -9033,7 +9027,7 @@
       <c r="O40" s="207"/>
       <c r="P40" s="211"/>
     </row>
-    <row r="41" spans="1:16" s="75" customFormat="1" ht="57.6">
+    <row r="41" spans="1:16" s="75" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="282">
         <v>39</v>
       </c>
@@ -9073,7 +9067,7 @@
       </c>
       <c r="P41" s="211"/>
     </row>
-    <row r="42" spans="1:16" s="212" customFormat="1" ht="115.2">
+    <row r="42" spans="1:16" s="212" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="282">
         <v>40</v>
       </c>
@@ -9113,7 +9107,7 @@
       </c>
       <c r="P42" s="211"/>
     </row>
-    <row r="43" spans="1:16" s="212" customFormat="1" ht="273.60000000000002">
+    <row r="43" spans="1:16" s="212" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="282">
         <v>41</v>
       </c>
@@ -9153,7 +9147,7 @@
       </c>
       <c r="P43" s="211"/>
     </row>
-    <row r="44" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="44" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="282">
         <v>42</v>
       </c>
@@ -9191,7 +9185,7 @@
       </c>
       <c r="P44" s="211"/>
     </row>
-    <row r="45" spans="1:16" s="212" customFormat="1" ht="129.6">
+    <row r="45" spans="1:16" s="212" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="282">
         <v>43</v>
       </c>
@@ -9229,7 +9223,7 @@
       </c>
       <c r="P45" s="211"/>
     </row>
-    <row r="46" spans="1:16" s="212" customFormat="1" ht="288">
+    <row r="46" spans="1:16" s="212" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="282">
         <v>44</v>
       </c>
@@ -9269,7 +9263,7 @@
       </c>
       <c r="P46" s="211"/>
     </row>
-    <row r="47" spans="1:16" s="53" customFormat="1" ht="158.4">
+    <row r="47" spans="1:16" s="53" customFormat="1" ht="121.5">
       <c r="A47" s="282">
         <v>45</v>
       </c>
@@ -9307,7 +9301,7 @@
       </c>
       <c r="P47" s="200"/>
     </row>
-    <row r="48" spans="1:16" s="212" customFormat="1" ht="100.8">
+    <row r="48" spans="1:16" s="212" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="282">
         <v>46</v>
       </c>
@@ -9343,7 +9337,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="211"/>
     </row>
-    <row r="49" spans="1:16" s="53" customFormat="1" ht="86.4">
+    <row r="49" spans="1:16" s="53" customFormat="1" ht="81">
       <c r="A49" s="282">
         <v>47</v>
       </c>
@@ -9377,7 +9371,7 @@
       <c r="O49" s="157"/>
       <c r="P49" s="200"/>
     </row>
-    <row r="50" spans="1:16" s="201" customFormat="1" ht="129.6">
+    <row r="50" spans="1:16" s="201" customFormat="1" ht="121.5">
       <c r="A50" s="282">
         <v>48</v>
       </c>
@@ -9417,7 +9411,7 @@
       </c>
       <c r="P50" s="200"/>
     </row>
-    <row r="51" spans="1:16" s="75" customFormat="1" ht="28.8">
+    <row r="51" spans="1:16" s="75" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="282">
         <v>49</v>
       </c>
@@ -9453,7 +9447,7 @@
       <c r="O51" s="207"/>
       <c r="P51" s="211"/>
     </row>
-    <row r="52" spans="1:16" s="68" customFormat="1" ht="57.6">
+    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5">
       <c r="A52" s="282">
         <v>50</v>
       </c>
@@ -9476,9 +9470,7 @@
         <v>285</v>
       </c>
       <c r="H52" s="91"/>
-      <c r="I52" s="197" t="s">
-        <v>150</v>
-      </c>
+      <c r="I52" s="197"/>
       <c r="J52" s="67"/>
       <c r="K52" s="65"/>
       <c r="L52" s="216" t="s">
@@ -9487,11 +9479,11 @@
       <c r="M52" s="199"/>
       <c r="N52" s="199"/>
       <c r="O52" s="203">
-        <v>42616</v>
+        <v>42637</v>
       </c>
       <c r="P52" s="200"/>
     </row>
-    <row r="53" spans="1:16" s="212" customFormat="1">
+    <row r="53" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A53" s="282">
         <v>51</v>
       </c>
@@ -9527,7 +9519,7 @@
       <c r="O53" s="207"/>
       <c r="P53" s="211"/>
     </row>
-    <row r="54" spans="1:16" s="85" customFormat="1" ht="100.8">
+    <row r="54" spans="1:16" s="85" customFormat="1" ht="94.5">
       <c r="A54" s="282">
         <v>52</v>
       </c>
@@ -9567,7 +9559,7 @@
       </c>
       <c r="P54" s="200"/>
     </row>
-    <row r="55" spans="1:16" s="212" customFormat="1">
+    <row r="55" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A55" s="282">
         <v>53</v>
       </c>
@@ -9607,7 +9599,7 @@
       </c>
       <c r="P55" s="211"/>
     </row>
-    <row r="56" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="56" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="282">
         <v>54</v>
       </c>
@@ -9645,7 +9637,7 @@
       </c>
       <c r="P56" s="211"/>
     </row>
-    <row r="57" spans="1:16" s="85" customFormat="1" ht="201.6">
+    <row r="57" spans="1:16" s="85" customFormat="1" ht="189">
       <c r="A57" s="282">
         <v>55</v>
       </c>
@@ -9685,7 +9677,7 @@
       </c>
       <c r="P57" s="200"/>
     </row>
-    <row r="58" spans="1:16" s="62" customFormat="1" ht="28.8">
+    <row r="58" spans="1:16" s="62" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="282">
         <v>56</v>
       </c>
@@ -9723,7 +9715,7 @@
       </c>
       <c r="P58" s="61"/>
     </row>
-    <row r="59" spans="1:16" s="62" customFormat="1" ht="28.8">
+    <row r="59" spans="1:16" s="62" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="282">
         <v>57</v>
       </c>
@@ -9761,7 +9753,7 @@
       </c>
       <c r="P59" s="61"/>
     </row>
-    <row r="60" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="60" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="282">
         <v>58</v>
       </c>
@@ -9800,7 +9792,7 @@
       </c>
       <c r="P60" s="211"/>
     </row>
-    <row r="61" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="61" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="282">
         <v>59</v>
       </c>
@@ -9838,7 +9830,7 @@
       </c>
       <c r="P61" s="200"/>
     </row>
-    <row r="62" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="62" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="282">
         <v>60</v>
       </c>
@@ -9880,7 +9872,7 @@
       </c>
       <c r="P62" s="211"/>
     </row>
-    <row r="63" spans="1:16" s="75" customFormat="1">
+    <row r="63" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A63" s="282">
         <v>61</v>
       </c>
@@ -9920,7 +9912,7 @@
       </c>
       <c r="P63" s="211"/>
     </row>
-    <row r="64" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="64" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="282">
         <v>62</v>
       </c>
@@ -9964,7 +9956,7 @@
       </c>
       <c r="P64" s="211"/>
     </row>
-    <row r="65" spans="1:16" s="75" customFormat="1">
+    <row r="65" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A65" s="282">
         <v>63</v>
       </c>
@@ -10004,7 +9996,7 @@
       </c>
       <c r="P65" s="211"/>
     </row>
-    <row r="66" spans="1:16" s="75" customFormat="1">
+    <row r="66" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A66" s="282">
         <v>64</v>
       </c>
@@ -10044,7 +10036,7 @@
       </c>
       <c r="P66" s="211"/>
     </row>
-    <row r="67" spans="1:16" s="104" customFormat="1" ht="43.2">
+    <row r="67" spans="1:16" s="104" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="282">
         <v>65</v>
       </c>
@@ -10084,7 +10076,7 @@
       </c>
       <c r="P67" s="211"/>
     </row>
-    <row r="68" spans="1:16" s="75" customFormat="1" ht="28.8">
+    <row r="68" spans="1:16" s="75" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="282">
         <v>66</v>
       </c>
@@ -10124,7 +10116,7 @@
       </c>
       <c r="P68" s="211"/>
     </row>
-    <row r="69" spans="1:16" s="75" customFormat="1">
+    <row r="69" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A69" s="282">
         <v>67</v>
       </c>
@@ -10164,7 +10156,7 @@
       </c>
       <c r="P69" s="211"/>
     </row>
-    <row r="70" spans="1:16" s="212" customFormat="1" ht="57.6">
+    <row r="70" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="282">
         <v>68</v>
       </c>
@@ -10208,7 +10200,7 @@
       </c>
       <c r="P70" s="211"/>
     </row>
-    <row r="71" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="71" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="282">
         <v>69</v>
       </c>
@@ -10250,7 +10242,7 @@
       </c>
       <c r="P71" s="211"/>
     </row>
-    <row r="72" spans="1:16" s="75" customFormat="1">
+    <row r="72" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A72" s="282">
         <v>70</v>
       </c>
@@ -10290,7 +10282,7 @@
       </c>
       <c r="P72" s="211"/>
     </row>
-    <row r="73" spans="1:16" s="212" customFormat="1" ht="72">
+    <row r="73" spans="1:16" s="212" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="282">
         <v>71</v>
       </c>
@@ -10332,7 +10324,7 @@
       </c>
       <c r="P73" s="211"/>
     </row>
-    <row r="74" spans="1:16" s="212" customFormat="1" ht="28.8">
+    <row r="74" spans="1:16" s="212" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="282">
         <v>72</v>
       </c>
@@ -10374,7 +10366,7 @@
       </c>
       <c r="P74" s="211"/>
     </row>
-    <row r="75" spans="1:16" s="75" customFormat="1">
+    <row r="75" spans="1:16" s="75" customFormat="1" hidden="1">
       <c r="A75" s="282">
         <v>73</v>
       </c>
@@ -10414,7 +10406,7 @@
       </c>
       <c r="P75" s="211"/>
     </row>
-    <row r="76" spans="1:16" s="68" customFormat="1" ht="72">
+    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5">
       <c r="A76" s="282">
         <v>74</v>
       </c>
@@ -10454,7 +10446,7 @@
       </c>
       <c r="P76" s="200"/>
     </row>
-    <row r="77" spans="1:16" s="62" customFormat="1" ht="57.6">
+    <row r="77" spans="1:16" s="62" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="282">
         <v>75</v>
       </c>
@@ -10492,7 +10484,7 @@
       </c>
       <c r="P77" s="61"/>
     </row>
-    <row r="78" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="78" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="282">
         <v>76</v>
       </c>
@@ -10532,7 +10524,7 @@
       </c>
       <c r="P78" s="211"/>
     </row>
-    <row r="79" spans="1:16" s="212" customFormat="1" ht="43.2">
+    <row r="79" spans="1:16" s="212" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="282">
         <v>77</v>
       </c>
@@ -10570,7 +10562,7 @@
       </c>
       <c r="P79" s="211"/>
     </row>
-    <row r="80" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="80" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A80" s="282">
         <v>78</v>
       </c>
@@ -10604,7 +10596,7 @@
       <c r="O80" s="157"/>
       <c r="P80" s="200"/>
     </row>
-    <row r="81" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A81" s="282">
         <v>79</v>
       </c>
@@ -10644,7 +10636,7 @@
       </c>
       <c r="P81" s="200"/>
     </row>
-    <row r="82" spans="1:16" s="53" customFormat="1" ht="72">
+    <row r="82" spans="1:16" s="53" customFormat="1" ht="54">
       <c r="A82" s="282">
         <v>80</v>
       </c>
@@ -10676,7 +10668,7 @@
       <c r="O82" s="157"/>
       <c r="P82" s="200"/>
     </row>
-    <row r="83" spans="1:16" s="75" customFormat="1" ht="28.8">
+    <row r="83" spans="1:16" s="75" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="282">
         <v>81</v>
       </c>
@@ -10714,7 +10706,7 @@
       </c>
       <c r="P83" s="211"/>
     </row>
-    <row r="84" spans="1:16" s="212" customFormat="1">
+    <row r="84" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A84" s="282">
         <v>82</v>
       </c>
@@ -10754,7 +10746,7 @@
       </c>
       <c r="P84" s="211"/>
     </row>
-    <row r="85" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="85" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="282">
         <v>83</v>
       </c>
@@ -10786,7 +10778,7 @@
       <c r="O85" s="157"/>
       <c r="P85" s="200"/>
     </row>
-    <row r="86" spans="1:16" s="272" customFormat="1" ht="158.4">
+    <row r="86" spans="1:16" s="272" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="282">
         <v>84</v>
       </c>
@@ -10828,7 +10820,7 @@
       <c r="O86" s="266"/>
       <c r="P86" s="271"/>
     </row>
-    <row r="87" spans="1:16" s="272" customFormat="1" ht="230.4">
+    <row r="87" spans="1:16" s="272" customFormat="1" ht="189" hidden="1">
       <c r="A87" s="282">
         <v>85</v>
       </c>
@@ -10870,7 +10862,7 @@
       <c r="O87" s="266"/>
       <c r="P87" s="271"/>
     </row>
-    <row r="88" spans="1:16" ht="43.2">
+    <row r="88" spans="1:16" ht="40.5">
       <c r="A88" s="282">
         <v>86</v>
       </c>
@@ -10894,7 +10886,7 @@
       </c>
       <c r="P88" s="264"/>
     </row>
-    <row r="89" spans="1:16" s="272" customFormat="1">
+    <row r="89" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A89" s="282">
         <v>87</v>
       </c>
@@ -10930,7 +10922,7 @@
       <c r="O89" s="266"/>
       <c r="P89" s="271"/>
     </row>
-    <row r="90" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="90" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="282">
         <v>88</v>
       </c>
@@ -10970,7 +10962,7 @@
       <c r="O90" s="266"/>
       <c r="P90" s="271"/>
     </row>
-    <row r="91" spans="1:16" s="272" customFormat="1">
+    <row r="91" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A91" s="282">
         <v>89</v>
       </c>
@@ -11008,7 +11000,7 @@
       <c r="O91" s="266"/>
       <c r="P91" s="271"/>
     </row>
-    <row r="92" spans="1:16" s="272" customFormat="1">
+    <row r="92" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A92" s="282">
         <v>90</v>
       </c>
@@ -11046,7 +11038,7 @@
       <c r="O92" s="266"/>
       <c r="P92" s="271"/>
     </row>
-    <row r="93" spans="1:16" s="272" customFormat="1">
+    <row r="93" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A93" s="282">
         <v>91</v>
       </c>
@@ -11084,7 +11076,7 @@
       <c r="O93" s="266"/>
       <c r="P93" s="271"/>
     </row>
-    <row r="94" spans="1:16" s="272" customFormat="1">
+    <row r="94" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A94" s="282">
         <v>92</v>
       </c>
@@ -11122,7 +11114,7 @@
       <c r="O94" s="266"/>
       <c r="P94" s="271"/>
     </row>
-    <row r="95" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="95" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="282">
         <v>93</v>
       </c>
@@ -11160,7 +11152,7 @@
       <c r="O95" s="266"/>
       <c r="P95" s="271"/>
     </row>
-    <row r="96" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="96" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A96" s="282">
         <v>94</v>
       </c>
@@ -11194,7 +11186,7 @@
       <c r="O96" s="157"/>
       <c r="P96" s="200"/>
     </row>
-    <row r="97" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="97" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A97" s="282">
         <v>95</v>
       </c>
@@ -11226,7 +11218,7 @@
       <c r="O97" s="157"/>
       <c r="P97" s="200"/>
     </row>
-    <row r="98" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="98" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A98" s="282">
         <v>96</v>
       </c>
@@ -11258,7 +11250,7 @@
       <c r="O98" s="157"/>
       <c r="P98" s="200"/>
     </row>
-    <row r="99" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="99" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A99" s="282">
         <v>97</v>
       </c>
@@ -11290,7 +11282,7 @@
       <c r="O99" s="157"/>
       <c r="P99" s="200"/>
     </row>
-    <row r="100" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="100" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="282">
         <v>98</v>
       </c>
@@ -11328,7 +11320,7 @@
       <c r="O100" s="157"/>
       <c r="P100" s="200"/>
     </row>
-    <row r="101" spans="1:16" s="272" customFormat="1" ht="72">
+    <row r="101" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="282">
         <v>99</v>
       </c>
@@ -11362,7 +11354,7 @@
       <c r="O101" s="266"/>
       <c r="P101" s="271"/>
     </row>
-    <row r="102" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="102" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="282">
         <v>100</v>
       </c>
@@ -11400,7 +11392,7 @@
       </c>
       <c r="P102" s="271"/>
     </row>
-    <row r="103" spans="1:16" s="272" customFormat="1">
+    <row r="103" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A103" s="282">
         <v>101</v>
       </c>
@@ -11438,7 +11430,7 @@
       </c>
       <c r="P103" s="271"/>
     </row>
-    <row r="104" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="104" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="282">
         <v>102</v>
       </c>
@@ -11476,7 +11468,7 @@
       </c>
       <c r="P104" s="271"/>
     </row>
-    <row r="105" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="105" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="282">
         <v>103</v>
       </c>
@@ -11518,7 +11510,7 @@
       </c>
       <c r="P105" s="271"/>
     </row>
-    <row r="106" spans="1:16" s="212" customFormat="1">
+    <row r="106" spans="1:16" s="212" customFormat="1" hidden="1">
       <c r="A106" s="282">
         <v>104</v>
       </c>
@@ -11556,7 +11548,7 @@
       </c>
       <c r="P106" s="211"/>
     </row>
-    <row r="107" spans="1:16" s="272" customFormat="1" ht="57.6">
+    <row r="107" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="282">
         <v>105</v>
       </c>
@@ -11598,7 +11590,7 @@
       </c>
       <c r="P107" s="271"/>
     </row>
-    <row r="108" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="108" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A108" s="282">
         <v>106</v>
       </c>
@@ -11640,7 +11632,7 @@
       </c>
       <c r="P108" s="200"/>
     </row>
-    <row r="109" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="109" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="282">
         <v>107</v>
       </c>
@@ -11678,7 +11670,7 @@
       </c>
       <c r="P109" s="271"/>
     </row>
-    <row r="110" spans="1:16" s="85" customFormat="1" ht="43.2">
+    <row r="110" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A110" s="282">
         <v>108</v>
       </c>
@@ -11712,7 +11704,7 @@
       <c r="O110" s="109"/>
       <c r="P110" s="110"/>
     </row>
-    <row r="111" spans="1:16" s="272" customFormat="1" ht="86.4">
+    <row r="111" spans="1:16" s="272" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="282">
         <v>109</v>
       </c>
@@ -11752,7 +11744,7 @@
       <c r="O111" s="292"/>
       <c r="P111" s="294"/>
     </row>
-    <row r="112" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="112" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A112" s="282">
         <v>110</v>
       </c>
@@ -11786,7 +11778,7 @@
       </c>
       <c r="P112" s="200"/>
     </row>
-    <row r="113" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="113" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A113" s="282">
         <v>111</v>
       </c>
@@ -11820,7 +11812,7 @@
       </c>
       <c r="P113" s="200"/>
     </row>
-    <row r="114" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="114" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="282">
         <v>112</v>
       </c>
@@ -11858,7 +11850,7 @@
       </c>
       <c r="P114" s="271"/>
     </row>
-    <row r="115" spans="1:16" s="272" customFormat="1" ht="86.4">
+    <row r="115" spans="1:16" s="272" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="282">
         <v>113</v>
       </c>
@@ -11896,7 +11888,7 @@
       </c>
       <c r="P115" s="271"/>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" ht="43.2">
+    <row r="116" spans="1:16" s="3" customFormat="1" ht="40.5">
       <c r="A116" s="282">
         <v>114</v>
       </c>
@@ -11926,7 +11918,7 @@
       <c r="O116" s="157"/>
       <c r="P116" s="200"/>
     </row>
-    <row r="117" spans="1:16" s="272" customFormat="1" ht="72">
+    <row r="117" spans="1:16" s="272" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="282">
         <v>115</v>
       </c>
@@ -11960,7 +11952,7 @@
       <c r="O117" s="266"/>
       <c r="P117" s="271"/>
     </row>
-    <row r="118" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="118" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="282">
         <v>116</v>
       </c>
@@ -12000,7 +11992,7 @@
       </c>
       <c r="P118" s="271"/>
     </row>
-    <row r="119" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="119" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A119" s="282">
         <v>117</v>
       </c>
@@ -12040,7 +12032,7 @@
       </c>
       <c r="P119" s="271"/>
     </row>
-    <row r="120" spans="1:16" s="272" customFormat="1" ht="100.8">
+    <row r="120" spans="1:16" s="272" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="282">
         <v>118</v>
       </c>
@@ -12078,7 +12070,7 @@
       </c>
       <c r="P120" s="271"/>
     </row>
-    <row r="121" spans="1:16" s="272" customFormat="1" ht="144">
+    <row r="121" spans="1:16" s="272" customFormat="1" ht="121.5" hidden="1">
       <c r="A121" s="282">
         <v>119</v>
       </c>
@@ -12116,7 +12108,7 @@
       </c>
       <c r="P121" s="271"/>
     </row>
-    <row r="122" spans="1:16" s="272" customFormat="1" ht="57.6">
+    <row r="122" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="282">
         <v>120</v>
       </c>
@@ -12156,7 +12148,7 @@
       </c>
       <c r="P122" s="271"/>
     </row>
-    <row r="123" spans="1:16" s="272" customFormat="1" ht="115.2">
+    <row r="123" spans="1:16" s="272" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="282">
         <v>121</v>
       </c>
@@ -12194,7 +12186,7 @@
       <c r="O123" s="266"/>
       <c r="P123" s="271"/>
     </row>
-    <row r="124" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="124" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="282">
         <v>122</v>
       </c>
@@ -12232,7 +12224,7 @@
       </c>
       <c r="P124" s="271"/>
     </row>
-    <row r="125" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="125" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="282">
         <v>123</v>
       </c>
@@ -12270,7 +12262,7 @@
       </c>
       <c r="P125" s="271"/>
     </row>
-    <row r="126" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="126" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="282">
         <v>124</v>
       </c>
@@ -12310,7 +12302,7 @@
       <c r="O126" s="266"/>
       <c r="P126" s="271"/>
     </row>
-    <row r="127" spans="1:16" s="272" customFormat="1" ht="57.6">
+    <row r="127" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="282">
         <v>125</v>
       </c>
@@ -12350,7 +12342,7 @@
       </c>
       <c r="P127" s="271"/>
     </row>
-    <row r="128" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="128" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="282">
         <v>126</v>
       </c>
@@ -12392,7 +12384,7 @@
       </c>
       <c r="P128" s="271"/>
     </row>
-    <row r="129" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="129" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="282">
         <v>127</v>
       </c>
@@ -12434,7 +12426,7 @@
       </c>
       <c r="P129" s="271"/>
     </row>
-    <row r="130" spans="1:16" s="272" customFormat="1" ht="86.4">
+    <row r="130" spans="1:16" s="272" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="282">
         <v>128</v>
       </c>
@@ -12476,7 +12468,7 @@
       </c>
       <c r="P130" s="271"/>
     </row>
-    <row r="131" spans="1:16" s="139" customFormat="1" ht="43.2">
+    <row r="131" spans="1:16" s="139" customFormat="1" ht="40.5">
       <c r="A131" s="282">
         <v>129</v>
       </c>
@@ -12552,7 +12544,7 @@
       </c>
       <c r="P132" s="200"/>
     </row>
-    <row r="133" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="133" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="282">
         <v>131</v>
       </c>
@@ -12592,7 +12584,7 @@
       </c>
       <c r="P133" s="271"/>
     </row>
-    <row r="134" spans="1:16" s="139" customFormat="1" ht="43.2">
+    <row r="134" spans="1:16" s="139" customFormat="1" ht="40.5">
       <c r="A134" s="282">
         <v>132</v>
       </c>
@@ -12624,7 +12616,7 @@
       </c>
       <c r="P134" s="200"/>
     </row>
-    <row r="135" spans="1:16" s="139" customFormat="1" ht="28.8">
+    <row r="135" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A135" s="282">
         <v>133</v>
       </c>
@@ -12656,7 +12648,7 @@
       </c>
       <c r="P135" s="200"/>
     </row>
-    <row r="136" spans="1:16" s="139" customFormat="1" ht="86.4">
+    <row r="136" spans="1:16" s="139" customFormat="1" ht="67.5">
       <c r="A136" s="282">
         <v>134</v>
       </c>
@@ -12690,7 +12682,7 @@
       </c>
       <c r="P136" s="200"/>
     </row>
-    <row r="137" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="137" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="282">
         <v>135</v>
       </c>
@@ -12728,7 +12720,7 @@
       </c>
       <c r="P137" s="271"/>
     </row>
-    <row r="138" spans="1:16" s="139" customFormat="1" ht="86.4">
+    <row r="138" spans="1:16" s="139" customFormat="1" ht="81">
       <c r="A138" s="282">
         <v>136</v>
       </c>
@@ -12764,7 +12756,7 @@
       </c>
       <c r="P138" s="200"/>
     </row>
-    <row r="139" spans="1:16" s="272" customFormat="1">
+    <row r="139" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A139" s="282">
         <v>137</v>
       </c>
@@ -12806,7 +12798,7 @@
       </c>
       <c r="P139" s="271"/>
     </row>
-    <row r="140" spans="1:16" s="139" customFormat="1" ht="57.6">
+    <row r="140" spans="1:16" s="139" customFormat="1" ht="54">
       <c r="A140" s="282">
         <v>138</v>
       </c>
@@ -12840,7 +12832,7 @@
       </c>
       <c r="P140" s="200"/>
     </row>
-    <row r="141" spans="1:16" s="139" customFormat="1" ht="72">
+    <row r="141" spans="1:16" s="139" customFormat="1" ht="54">
       <c r="A141" s="282">
         <v>139</v>
       </c>
@@ -12878,7 +12870,7 @@
       </c>
       <c r="P141" s="200"/>
     </row>
-    <row r="142" spans="1:16" ht="86.4">
+    <row r="142" spans="1:16" ht="81">
       <c r="A142" s="238">
         <v>140</v>
       </c>
@@ -12904,7 +12896,7 @@
       <c r="K142" s="214"/>
       <c r="P142" s="264"/>
     </row>
-    <row r="143" spans="1:16" s="272" customFormat="1">
+    <row r="143" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A143" s="282">
         <v>141</v>
       </c>
@@ -12932,7 +12924,7 @@
       </c>
       <c r="P143" s="271"/>
     </row>
-    <row r="144" spans="1:16" s="272" customFormat="1" ht="43.2">
+    <row r="144" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A144" s="282">
         <v>142</v>
       </c>
@@ -12960,7 +12952,7 @@
       </c>
       <c r="P144" s="271"/>
     </row>
-    <row r="145" spans="1:16" s="272" customFormat="1" ht="28.8">
+    <row r="145" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="282">
         <v>143</v>
       </c>
@@ -12988,7 +12980,7 @@
       </c>
       <c r="P145" s="271"/>
     </row>
-    <row r="146" spans="1:16" s="139" customFormat="1" ht="43.2">
+    <row r="146" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A146" s="282">
         <v>144</v>
       </c>
@@ -13013,7 +13005,7 @@
       <c r="H146" s="10"/>
       <c r="P146" s="264"/>
     </row>
-    <row r="147" spans="1:16" s="139" customFormat="1" ht="28.8">
+    <row r="147" spans="1:16" s="139" customFormat="1">
       <c r="A147" s="282">
         <v>145</v>
       </c>
@@ -13063,7 +13055,7 @@
       <c r="H148" s="10"/>
       <c r="P148" s="264"/>
     </row>
-    <row r="149" spans="1:16" s="139" customFormat="1" ht="28.8">
+    <row r="149" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A149" s="282">
         <v>147</v>
       </c>
@@ -13086,7 +13078,7 @@
       <c r="H149" s="10"/>
       <c r="P149" s="264"/>
     </row>
-    <row r="150" spans="1:16" s="139" customFormat="1" ht="43.2">
+    <row r="150" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A150" s="282">
         <v>148</v>
       </c>
@@ -13143,7 +13135,7 @@
       <c r="O151" s="243"/>
       <c r="P151" s="264"/>
     </row>
-    <row r="152" spans="1:16" s="239" customFormat="1" ht="43.2">
+    <row r="152" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A152" s="282">
         <v>150</v>
       </c>
@@ -13177,7 +13169,7 @@
       <c r="O152" s="243"/>
       <c r="P152" s="264"/>
     </row>
-    <row r="153" spans="1:16" s="239" customFormat="1" ht="43.2">
+    <row r="153" spans="1:16" s="239" customFormat="1" ht="40.5">
       <c r="A153" s="282">
         <v>151</v>
       </c>
@@ -13211,7 +13203,7 @@
       <c r="O153" s="243"/>
       <c r="P153" s="264"/>
     </row>
-    <row r="154" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="154" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A154" s="282">
         <v>152</v>
       </c>
@@ -13245,7 +13237,7 @@
       <c r="O154" s="260"/>
       <c r="P154" s="264"/>
     </row>
-    <row r="155" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="155" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A155" s="282">
         <v>153</v>
       </c>
@@ -13311,7 +13303,7 @@
       <c r="O156" s="243"/>
       <c r="P156" s="264"/>
     </row>
-    <row r="157" spans="1:16" s="239" customFormat="1" ht="57.6">
+    <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5">
       <c r="A157" s="282">
         <v>155</v>
       </c>
@@ -13343,7 +13335,7 @@
       <c r="O157" s="243"/>
       <c r="P157" s="264"/>
     </row>
-    <row r="158" spans="1:16" s="239" customFormat="1" ht="28.8">
+    <row r="158" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A158" s="282">
         <v>156</v>
       </c>
@@ -13377,7 +13369,7 @@
       <c r="O158" s="243"/>
       <c r="P158" s="264"/>
     </row>
-    <row r="159" spans="1:16" s="239" customFormat="1" ht="28.8">
+    <row r="159" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A159" s="282">
         <v>157</v>
       </c>
@@ -13411,7 +13403,7 @@
       <c r="O159" s="243"/>
       <c r="P159" s="264"/>
     </row>
-    <row r="160" spans="1:16" s="239" customFormat="1" ht="28.8">
+    <row r="160" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A160" s="282">
         <v>158</v>
       </c>
@@ -13445,7 +13437,7 @@
       <c r="O160" s="243"/>
       <c r="P160" s="264"/>
     </row>
-    <row r="161" spans="1:16" s="239" customFormat="1" ht="28.8">
+    <row r="161" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A161" s="282">
         <v>159</v>
       </c>
@@ -13511,7 +13503,7 @@
       <c r="O162" s="260"/>
       <c r="P162" s="264"/>
     </row>
-    <row r="163" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="163" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A163" s="282">
         <v>161</v>
       </c>
@@ -13545,7 +13537,7 @@
       <c r="O163" s="260"/>
       <c r="P163" s="264"/>
     </row>
-    <row r="164" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="164" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A164" s="282">
         <v>162</v>
       </c>
@@ -13611,7 +13603,7 @@
       <c r="O165" s="260"/>
       <c r="P165" s="264"/>
     </row>
-    <row r="166" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="166" spans="1:16" s="258" customFormat="1">
       <c r="A166" s="282">
         <v>164</v>
       </c>
@@ -13645,7 +13637,7 @@
       <c r="O166" s="260"/>
       <c r="P166" s="264"/>
     </row>
-    <row r="167" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="167" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A167" s="282">
         <v>165</v>
       </c>
@@ -13679,7 +13671,7 @@
       <c r="O167" s="260"/>
       <c r="P167" s="264"/>
     </row>
-    <row r="168" spans="1:16" s="258" customFormat="1" ht="43.2">
+    <row r="168" spans="1:16" s="258" customFormat="1" ht="40.5">
       <c r="A168" s="282">
         <v>166</v>
       </c>
@@ -13711,7 +13703,7 @@
       <c r="O168" s="260"/>
       <c r="P168" s="264"/>
     </row>
-    <row r="169" spans="1:16" s="258" customFormat="1" ht="57.6">
+    <row r="169" spans="1:16" s="258" customFormat="1" ht="40.5">
       <c r="A169" s="282">
         <v>167</v>
       </c>
@@ -13743,7 +13735,7 @@
       <c r="O169" s="260"/>
       <c r="P169" s="264"/>
     </row>
-    <row r="170" spans="1:16" s="258" customFormat="1" ht="28.8">
+    <row r="170" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A170" s="282">
         <v>168</v>
       </c>
@@ -13778,8 +13770,13 @@
       <c r="P170" s="264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P161">
+  <autoFilter ref="A2:P170">
     <filterColumn colId="5"/>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -13788,7 +13785,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I59 I61 I63 I65:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13810,18 +13807,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="53"/>
-    <col min="3" max="3" width="15.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="53" customWidth="1"/>
     <col min="4" max="4" width="9" style="53"/>
-    <col min="5" max="5" width="14.33203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="77.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="77.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="53" customWidth="1"/>
     <col min="10" max="12" width="9" style="53"/>
-    <col min="13" max="13" width="23.77734375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="23.75" style="53" customWidth="1"/>
     <col min="14" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
@@ -13877,7 +13874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -13906,7 +13903,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="27">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -13935,7 +13932,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="27">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -13964,7 +13961,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="172.8">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="162">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -13995,7 +13992,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="28"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="28.8">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="27">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -14026,7 +14023,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="28.8">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="27">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -14057,7 +14054,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="28"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="28.8">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="27">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -14153,7 +14150,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="28"/>
     </row>
-    <row r="13" spans="1:15" s="68" customFormat="1" ht="100.8">
+    <row r="13" spans="1:15" s="68" customFormat="1" ht="81">
       <c r="A13" s="64"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -14172,7 +14169,7 @@
       <c r="N13" s="65"/>
       <c r="O13" s="28"/>
     </row>
-    <row r="14" spans="1:15" s="62" customFormat="1" ht="129.6">
+    <row r="14" spans="1:15" s="62" customFormat="1" ht="108">
       <c r="A14" s="54"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -14191,7 +14188,7 @@
       <c r="N14" s="56"/>
       <c r="O14" s="61"/>
     </row>
-    <row r="15" spans="1:15" ht="129.6">
+    <row r="15" spans="1:15" ht="121.5">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -14210,7 +14207,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="28"/>
     </row>
-    <row r="16" spans="1:15" ht="72">
+    <row r="16" spans="1:15" ht="54">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -15085,7 +15082,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15106,19 +15103,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="15.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" style="164"/>
-    <col min="5" max="5" width="14.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="139" customWidth="1"/>
-    <col min="7" max="7" width="77.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="139" customWidth="1"/>
+    <col min="7" max="7" width="77.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="8" customWidth="1"/>
     <col min="11" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="23.77734375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.75" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -15177,7 +15174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="85" customFormat="1" ht="28.8">
+    <row r="3" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A3" s="86">
         <v>1</v>
       </c>
@@ -15211,7 +15208,7 @@
       </c>
       <c r="P3" s="93"/>
     </row>
-    <row r="4" spans="1:16" ht="28.8">
+    <row r="4" spans="1:16" ht="27">
       <c r="A4" s="155">
         <v>2</v>
       </c>
@@ -15241,7 +15238,7 @@
       <c r="O4" s="157"/>
       <c r="P4" s="161"/>
     </row>
-    <row r="5" spans="1:16" s="139" customFormat="1" ht="43.2">
+    <row r="5" spans="1:16" s="139" customFormat="1" ht="40.5">
       <c r="A5" s="215">
         <v>3</v>
       </c>
@@ -15273,7 +15270,7 @@
       <c r="O5" s="157"/>
       <c r="P5" s="200"/>
     </row>
-    <row r="6" spans="1:16" s="139" customFormat="1" ht="100.8">
+    <row r="6" spans="1:16" s="139" customFormat="1" ht="94.5">
       <c r="A6" s="215">
         <v>4</v>
       </c>
@@ -16117,11 +16114,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10" style="80" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" style="77" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="70.125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="77" customWidth="1"/>
     <col min="5" max="16384" width="9" style="77"/>
   </cols>
   <sheetData>
@@ -16139,7 +16136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8">
+    <row r="2" spans="1:4" ht="27">
       <c r="A2" s="79">
         <v>42552</v>
       </c>
@@ -16150,7 +16147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2">
+    <row r="3" spans="1:4" ht="40.5">
       <c r="A3" s="79">
         <v>42585</v>
       </c>
@@ -16161,7 +16158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="316.8">
+    <row r="4" spans="1:4" ht="283.5">
       <c r="A4" s="79">
         <v>42610</v>
       </c>
@@ -16217,13 +16214,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="124" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="111" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="124" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="111" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="124" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="111" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -16644,14 +16641,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="102"/>
-    <col min="2" max="2" width="88.77734375" style="102" customWidth="1"/>
+    <col min="2" max="2" width="88.75" style="102" customWidth="1"/>
     <col min="3" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="15.6">
+    <row r="7" spans="2:2" ht="15.75">
       <c r="B7" s="102" t="s">
         <v>74</v>
       </c>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="435">
   <si>
     <t>编号</t>
   </si>
@@ -5171,6 +5171,10 @@
   </si>
   <si>
     <t>复检txt。新增编号151~168记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)无法做。目前的程序架构已经弄完了，发音都是基于反显来做的，逐字只能反显一个字符。（2）已修改。（3）按7键不能往前选择的问题已修改。但同1一样，不能在选的过程中保留反显。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7526,8 +7530,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9519,7 +9523,7 @@
       <c r="O53" s="207"/>
       <c r="P53" s="211"/>
     </row>
-    <row r="54" spans="1:16" s="85" customFormat="1" ht="94.5">
+    <row r="54" spans="1:16" s="85" customFormat="1" ht="108">
       <c r="A54" s="282">
         <v>52</v>
       </c>
@@ -9538,24 +9542,24 @@
       <c r="F54" s="247" t="s">
         <v>351</v>
       </c>
-      <c r="G54" s="244" t="s">
+      <c r="G54" s="261" t="s">
         <v>286</v>
       </c>
       <c r="H54" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I54" s="197" t="s">
-        <v>150</v>
-      </c>
+      <c r="I54" s="197"/>
       <c r="J54" s="92"/>
       <c r="K54" s="92"/>
       <c r="L54" s="216" t="s">
         <v>60</v>
       </c>
       <c r="M54" s="199"/>
-      <c r="N54" s="199"/>
+      <c r="N54" s="262" t="s">
+        <v>434</v>
+      </c>
       <c r="O54" s="157">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="P54" s="200"/>
     </row>
@@ -13773,7 +13777,7 @@
   <autoFilter ref="A2:P170">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="434">
   <si>
     <t>编号</t>
   </si>
@@ -2011,10 +2011,6 @@
   </si>
   <si>
     <t>遗留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7386,7 +7382,7 @@
         <v>42616</v>
       </c>
       <c r="F3" s="256" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" s="168"/>
     </row>
@@ -7405,7 +7401,7 @@
         <v>42625</v>
       </c>
       <c r="F4" s="279" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" s="168"/>
     </row>
@@ -7423,7 +7419,7 @@
         <v>42625</v>
       </c>
       <c r="F5" s="279" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="301" customFormat="1">
@@ -7440,7 +7436,7 @@
         <v>42632</v>
       </c>
       <c r="F6" s="279" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="257" customFormat="1">
@@ -7457,7 +7453,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="279" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7530,8 +7526,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7575,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>4</v>
@@ -7625,7 +7621,7 @@
         <v>42555</v>
       </c>
       <c r="F3" s="253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="233" t="s">
         <v>235</v>
@@ -7636,9 +7632,7 @@
       <c r="I3" s="230"/>
       <c r="J3" s="235"/>
       <c r="K3" s="231"/>
-      <c r="L3" s="230" t="s">
-        <v>60</v>
-      </c>
+      <c r="L3" s="230"/>
       <c r="M3" s="234"/>
       <c r="N3" s="234"/>
       <c r="O3" s="231">
@@ -7741,14 +7735,14 @@
         <v>42555</v>
       </c>
       <c r="F6" s="252" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="213" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="210"/>
       <c r="I6" s="206" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J6" s="151"/>
       <c r="K6" s="207">
@@ -7759,14 +7753,14 @@
       </c>
       <c r="M6" s="210"/>
       <c r="N6" s="210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O6" s="207">
         <v>42631</v>
       </c>
       <c r="P6" s="211"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="282">
         <v>5</v>
       </c>
@@ -7783,10 +7777,10 @@
         <v>42555</v>
       </c>
       <c r="F7" s="247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="216"/>
@@ -7895,10 +7889,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="217" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G10" s="261" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H10" s="91" t="s">
         <v>49</v>
@@ -8214,7 +8208,7 @@
       </c>
       <c r="P18" s="200"/>
     </row>
-    <row r="19" spans="1:16" s="53" customFormat="1" ht="229.5">
+    <row r="19" spans="1:16" s="53" customFormat="1" ht="229.5" hidden="1">
       <c r="A19" s="282">
         <v>17</v>
       </c>
@@ -8231,14 +8225,14 @@
         <v>42555</v>
       </c>
       <c r="F19" s="217" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" s="261" t="s">
         <v>383</v>
-      </c>
-      <c r="G19" s="261" t="s">
-        <v>384</v>
       </c>
       <c r="H19" s="199"/>
       <c r="I19" s="259" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -8248,7 +8242,7 @@
       <c r="O19" s="157"/>
       <c r="P19" s="200"/>
     </row>
-    <row r="20" spans="1:16" s="53" customFormat="1" ht="67.5">
+    <row r="20" spans="1:16" s="53" customFormat="1" ht="67.5" hidden="1">
       <c r="A20" s="282">
         <v>18</v>
       </c>
@@ -8265,14 +8259,14 @@
         <v>42555</v>
       </c>
       <c r="F20" s="217" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G20" s="218" t="s">
         <v>191</v>
       </c>
       <c r="H20" s="199"/>
       <c r="I20" s="259" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -8282,7 +8276,7 @@
       <c r="O20" s="157"/>
       <c r="P20" s="200"/>
     </row>
-    <row r="21" spans="1:16" s="53" customFormat="1" ht="189">
+    <row r="21" spans="1:16" s="53" customFormat="1" ht="189" hidden="1">
       <c r="A21" s="282">
         <v>19</v>
       </c>
@@ -8299,14 +8293,14 @@
         <v>42555</v>
       </c>
       <c r="F21" s="217" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" s="261" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="259" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -8372,11 +8366,11 @@
       </c>
       <c r="F23" s="252"/>
       <c r="G23" s="209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" s="210"/>
       <c r="I23" s="206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" s="151"/>
       <c r="K23" s="207">
@@ -8410,7 +8404,7 @@
       </c>
       <c r="F24" s="252"/>
       <c r="G24" s="209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H24" s="210"/>
       <c r="I24" s="206" t="s">
@@ -8504,7 +8498,7 @@
       <c r="O26" s="207"/>
       <c r="P26" s="211"/>
     </row>
-    <row r="27" spans="1:16" ht="135">
+    <row r="27" spans="1:16" ht="135" hidden="1">
       <c r="A27" s="282">
         <v>25</v>
       </c>
@@ -8521,17 +8515,15 @@
         <v>42555</v>
       </c>
       <c r="F27" s="247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G27" s="276" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H27" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="216" t="s">
-        <v>238</v>
-      </c>
+      <c r="I27" s="216"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="216" t="s">
@@ -8540,11 +8532,11 @@
       <c r="M27" s="199"/>
       <c r="N27" s="199"/>
       <c r="O27" s="157">
-        <v>42631</v>
+        <v>42637</v>
       </c>
       <c r="P27" s="200"/>
     </row>
-    <row r="28" spans="1:16" ht="229.5">
+    <row r="28" spans="1:16" ht="229.5" hidden="1">
       <c r="A28" s="282">
         <v>26</v>
       </c>
@@ -8561,16 +8553,16 @@
         <v>42555</v>
       </c>
       <c r="F28" s="217" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G28" s="261" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H28" s="199" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="259" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -8628,11 +8620,11 @@
       </c>
       <c r="F30" s="267"/>
       <c r="G30" s="268" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H30" s="269"/>
       <c r="I30" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J30" s="270"/>
       <c r="K30" s="266">
@@ -8661,14 +8653,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="267" t="s">
+        <v>390</v>
+      </c>
+      <c r="G31" s="268" t="s">
         <v>391</v>
-      </c>
-      <c r="G31" s="268" t="s">
-        <v>392</v>
       </c>
       <c r="H31" s="269"/>
       <c r="I31" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J31" s="270"/>
       <c r="K31" s="266">
@@ -8698,7 +8690,7 @@
       </c>
       <c r="F32" s="252"/>
       <c r="G32" s="209" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H32" s="210"/>
       <c r="I32" s="206" t="s">
@@ -8887,10 +8879,10 @@
         <v>42555</v>
       </c>
       <c r="F37" s="252" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="209" t="s">
         <v>261</v>
-      </c>
-      <c r="G37" s="209" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="210"/>
       <c r="I37" s="206" t="s">
@@ -8929,10 +8921,10 @@
         <v>42555</v>
       </c>
       <c r="F38" s="210" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="209" t="s">
         <v>250</v>
-      </c>
-      <c r="G38" s="209" t="s">
-        <v>251</v>
       </c>
       <c r="I38" s="206" t="s">
         <v>236</v>
@@ -8945,10 +8937,10 @@
         <v>209</v>
       </c>
       <c r="M38" s="210" t="s">
+        <v>251</v>
+      </c>
+      <c r="N38" s="210" t="s">
         <v>252</v>
-      </c>
-      <c r="N38" s="210" t="s">
-        <v>253</v>
       </c>
       <c r="O38" s="207">
         <v>42631</v>
@@ -9008,14 +9000,14 @@
         <v>42555</v>
       </c>
       <c r="F40" s="252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H40" s="210"/>
       <c r="I40" s="206" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J40" s="151"/>
       <c r="K40" s="207">
@@ -9089,7 +9081,7 @@
       </c>
       <c r="F42" s="252"/>
       <c r="G42" s="209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" s="210" t="s">
         <v>49</v>
@@ -9129,7 +9121,7 @@
       </c>
       <c r="F43" s="252"/>
       <c r="G43" s="213" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H43" s="210" t="s">
         <v>49</v>
@@ -9169,11 +9161,11 @@
       </c>
       <c r="F44" s="252"/>
       <c r="G44" s="209" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H44" s="210"/>
       <c r="I44" s="206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J44" s="151"/>
       <c r="K44" s="207">
@@ -9207,11 +9199,11 @@
       </c>
       <c r="F45" s="252"/>
       <c r="G45" s="209" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="210"/>
       <c r="I45" s="206" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J45" s="151"/>
       <c r="K45" s="207">
@@ -9244,14 +9236,14 @@
         <v>42555</v>
       </c>
       <c r="F46" s="252" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G46" s="209" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H46" s="210"/>
       <c r="I46" s="206" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J46" s="151"/>
       <c r="K46" s="207">
@@ -9267,7 +9259,7 @@
       </c>
       <c r="P46" s="211"/>
     </row>
-    <row r="47" spans="1:16" s="53" customFormat="1" ht="121.5">
+    <row r="47" spans="1:16" s="53" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="282">
         <v>45</v>
       </c>
@@ -9284,7 +9276,7 @@
         <v>42555</v>
       </c>
       <c r="F47" s="247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="218" t="s">
         <v>231</v>
@@ -9358,13 +9350,13 @@
         <v>42558</v>
       </c>
       <c r="F49" s="217" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" s="276" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="262" t="s">
         <v>393</v>
-      </c>
-      <c r="G49" s="276" t="s">
-        <v>395</v>
-      </c>
-      <c r="H49" s="262" t="s">
-        <v>394</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="27"/>
@@ -9375,7 +9367,7 @@
       <c r="O49" s="157"/>
       <c r="P49" s="200"/>
     </row>
-    <row r="50" spans="1:16" s="201" customFormat="1" ht="121.5">
+    <row r="50" spans="1:16" s="201" customFormat="1" ht="121.5" hidden="1">
       <c r="A50" s="282">
         <v>48</v>
       </c>
@@ -9392,10 +9384,10 @@
         <v>42558</v>
       </c>
       <c r="F50" s="278" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G50" s="244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H50" s="199" t="s">
         <v>147</v>
@@ -9451,7 +9443,7 @@
       <c r="O51" s="207"/>
       <c r="P51" s="211"/>
     </row>
-    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5">
+    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5" hidden="1">
       <c r="A52" s="282">
         <v>50</v>
       </c>
@@ -9468,10 +9460,10 @@
         <v>42612</v>
       </c>
       <c r="F52" s="278" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G52" s="244" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H52" s="91"/>
       <c r="I52" s="197"/>
@@ -9504,14 +9496,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="208" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G53" s="209" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H53" s="210"/>
       <c r="I53" s="275" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J53" s="151"/>
       <c r="K53" s="207">
@@ -9523,7 +9515,7 @@
       <c r="O53" s="207"/>
       <c r="P53" s="211"/>
     </row>
-    <row r="54" spans="1:16" s="85" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="85" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="282">
         <v>52</v>
       </c>
@@ -9540,10 +9532,10 @@
         <v>42612</v>
       </c>
       <c r="F54" s="247" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G54" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H54" s="91" t="s">
         <v>49</v>
@@ -9556,7 +9548,7 @@
       </c>
       <c r="M54" s="199"/>
       <c r="N54" s="262" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O54" s="157">
         <v>42634</v>
@@ -9641,7 +9633,7 @@
       </c>
       <c r="P56" s="211"/>
     </row>
-    <row r="57" spans="1:16" s="85" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="85" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="282">
         <v>55</v>
       </c>
@@ -9658,10 +9650,10 @@
         <v>42612</v>
       </c>
       <c r="F57" s="247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G57" s="250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H57" s="91" t="s">
         <v>49</v>
@@ -9699,11 +9691,11 @@
       </c>
       <c r="F58" s="255"/>
       <c r="G58" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H58" s="59"/>
       <c r="I58" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J58" s="60"/>
       <c r="K58" s="56">
@@ -9737,11 +9729,11 @@
       </c>
       <c r="F59" s="255"/>
       <c r="G59" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H59" s="59"/>
       <c r="I59" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J59" s="60"/>
       <c r="K59" s="56">
@@ -9775,7 +9767,7 @@
       </c>
       <c r="F60" s="252"/>
       <c r="G60" s="209" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I60" s="210" t="s">
         <v>236</v>
@@ -9789,7 +9781,7 @@
       </c>
       <c r="M60" s="210"/>
       <c r="N60" s="210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O60" s="207">
         <v>42630</v>
@@ -9813,14 +9805,14 @@
         <v>42612</v>
       </c>
       <c r="F61" s="247" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G61" s="244" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H61" s="91"/>
       <c r="I61" s="242" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J61" s="92"/>
       <c r="K61" s="92"/>
@@ -9851,10 +9843,10 @@
         <v>42612</v>
       </c>
       <c r="F62" s="252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G62" s="209" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H62" s="210"/>
       <c r="I62" s="210" t="s">
@@ -9933,10 +9925,10 @@
         <v>42612</v>
       </c>
       <c r="F64" s="252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G64" s="209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H64" s="210" t="s">
         <v>49</v>
@@ -10177,10 +10169,10 @@
         <v>42612</v>
       </c>
       <c r="F70" s="252" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="209" t="s">
         <v>297</v>
-      </c>
-      <c r="G70" s="209" t="s">
-        <v>298</v>
       </c>
       <c r="H70" s="210" t="s">
         <v>49</v>
@@ -10303,16 +10295,16 @@
         <v>42612</v>
       </c>
       <c r="F73" s="252" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G73" s="213" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H73" s="210" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I73" s="206" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J73" s="151"/>
       <c r="K73" s="207">
@@ -10410,7 +10402,7 @@
       </c>
       <c r="P75" s="211"/>
     </row>
-    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5">
+    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5" hidden="1">
       <c r="A76" s="282">
         <v>74</v>
       </c>
@@ -10427,14 +10419,14 @@
         <v>42612</v>
       </c>
       <c r="F76" s="251" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" s="276" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H76" s="91"/>
       <c r="I76" s="259" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J76" s="67"/>
       <c r="K76" s="65"/>
@@ -10468,11 +10460,11 @@
       </c>
       <c r="F77" s="255"/>
       <c r="G77" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J77" s="60"/>
       <c r="K77" s="56">
@@ -10583,7 +10575,7 @@
         <v>42612</v>
       </c>
       <c r="F80" s="217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G80" s="198" t="s">
         <v>168</v>
@@ -10600,7 +10592,7 @@
       <c r="O80" s="157"/>
       <c r="P80" s="200"/>
     </row>
-    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="282">
         <v>79</v>
       </c>
@@ -10617,10 +10609,10 @@
         <v>42612</v>
       </c>
       <c r="F81" s="247" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G81" s="261" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H81" s="91"/>
       <c r="I81" s="197" t="s">
@@ -10772,7 +10764,7 @@
       </c>
       <c r="H85" s="91"/>
       <c r="I85" s="275" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J85" s="74"/>
       <c r="K85" s="70"/>
@@ -10799,16 +10791,16 @@
         <v>42616</v>
       </c>
       <c r="F86" s="255" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G86" s="283" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H86" s="269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I86" s="265" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J86" s="270"/>
       <c r="K86" s="266">
@@ -10819,7 +10811,7 @@
       </c>
       <c r="M86" s="269"/>
       <c r="N86" s="269" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O86" s="266"/>
       <c r="P86" s="271"/>
@@ -10841,16 +10833,16 @@
         <v>42616</v>
       </c>
       <c r="F87" s="255" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G87" s="268" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H87" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I87" s="265" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J87" s="270"/>
       <c r="K87" s="266">
@@ -10883,10 +10875,10 @@
         <v>42616</v>
       </c>
       <c r="F88" s="222" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G88" s="277" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P88" s="264"/>
     </row>
@@ -10908,13 +10900,13 @@
       </c>
       <c r="F89" s="267"/>
       <c r="G89" s="268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H89" s="269" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I89" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J89" s="270"/>
       <c r="K89" s="266">
@@ -10944,13 +10936,13 @@
       </c>
       <c r="F90" s="255"/>
       <c r="G90" s="268" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H90" s="269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I90" s="265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J90" s="270"/>
       <c r="K90" s="266">
@@ -10961,7 +10953,7 @@
       </c>
       <c r="M90" s="269"/>
       <c r="N90" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O90" s="266"/>
       <c r="P90" s="271"/>
@@ -10984,11 +10976,11 @@
       </c>
       <c r="F91" s="255"/>
       <c r="G91" s="268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H91" s="269"/>
       <c r="I91" s="265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J91" s="270"/>
       <c r="K91" s="266">
@@ -10999,7 +10991,7 @@
       </c>
       <c r="M91" s="269"/>
       <c r="N91" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O91" s="266"/>
       <c r="P91" s="271"/>
@@ -11022,11 +11014,11 @@
       </c>
       <c r="F92" s="255"/>
       <c r="G92" s="268" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H92" s="269"/>
       <c r="I92" s="265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J92" s="270"/>
       <c r="K92" s="266">
@@ -11037,7 +11029,7 @@
       </c>
       <c r="M92" s="269"/>
       <c r="N92" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O92" s="266"/>
       <c r="P92" s="271"/>
@@ -11060,11 +11052,11 @@
       </c>
       <c r="F93" s="255"/>
       <c r="G93" s="268" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H93" s="269"/>
       <c r="I93" s="265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J93" s="270"/>
       <c r="K93" s="266">
@@ -11075,7 +11067,7 @@
       </c>
       <c r="M93" s="269"/>
       <c r="N93" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O93" s="266"/>
       <c r="P93" s="271"/>
@@ -11098,11 +11090,11 @@
       </c>
       <c r="F94" s="255"/>
       <c r="G94" s="268" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H94" s="269"/>
       <c r="I94" s="265" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J94" s="270"/>
       <c r="K94" s="266">
@@ -11113,7 +11105,7 @@
       </c>
       <c r="M94" s="269"/>
       <c r="N94" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O94" s="266"/>
       <c r="P94" s="271"/>
@@ -11140,7 +11132,7 @@
       </c>
       <c r="H95" s="269"/>
       <c r="I95" s="265" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J95" s="270"/>
       <c r="K95" s="266">
@@ -11173,10 +11165,10 @@
         <v>42616</v>
       </c>
       <c r="F96" s="217" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G96" s="261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H96" s="91" t="s">
         <v>49</v>
@@ -11207,10 +11199,10 @@
         <v>42616</v>
       </c>
       <c r="F97" s="217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G97" s="261" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H97" s="91"/>
       <c r="I97" s="87"/>
@@ -11239,10 +11231,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G98" s="261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H98" s="91"/>
       <c r="I98" s="87"/>
@@ -11271,10 +11263,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G99" s="261" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H99" s="91"/>
       <c r="I99" s="87"/>
@@ -11303,14 +11295,14 @@
         <v>42616</v>
       </c>
       <c r="F100" s="247" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G100" s="198" t="s">
         <v>172</v>
       </c>
       <c r="H100" s="91"/>
       <c r="I100" s="259" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J100" s="92"/>
       <c r="K100" s="92"/>
@@ -11342,11 +11334,11 @@
       </c>
       <c r="F101" s="267"/>
       <c r="G101" s="283" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H101" s="269"/>
       <c r="I101" s="265" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J101" s="270"/>
       <c r="K101" s="266">
@@ -11490,7 +11482,7 @@
       </c>
       <c r="F105" s="255"/>
       <c r="G105" s="268" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H105" s="269" t="s">
         <v>49</v>
@@ -11570,7 +11562,7 @@
       </c>
       <c r="F107" s="255"/>
       <c r="G107" s="268" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H107" s="269" t="s">
         <v>49</v>
@@ -11594,7 +11586,7 @@
       </c>
       <c r="P107" s="271"/>
     </row>
-    <row r="108" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="108" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A108" s="282">
         <v>106</v>
       </c>
@@ -11611,16 +11603,16 @@
         <v>42616</v>
       </c>
       <c r="F108" s="247" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G108" s="261" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H108" s="91" t="s">
         <v>49</v>
       </c>
       <c r="I108" s="275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J108" s="92"/>
       <c r="K108" s="92"/>
@@ -11654,13 +11646,13 @@
       </c>
       <c r="F109" s="267"/>
       <c r="G109" s="268" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H109" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I109" s="265" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J109" s="270"/>
       <c r="K109" s="266">
@@ -11691,10 +11683,10 @@
         <v>42616</v>
       </c>
       <c r="F110" s="278" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G110" s="144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H110" s="143" t="s">
         <v>49</v>
@@ -11726,13 +11718,13 @@
       </c>
       <c r="F111" s="287"/>
       <c r="G111" s="288" t="s">
+        <v>345</v>
+      </c>
+      <c r="H111" s="289" t="s">
         <v>346</v>
       </c>
-      <c r="H111" s="289" t="s">
-        <v>347</v>
-      </c>
       <c r="I111" s="290" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J111" s="291"/>
       <c r="K111" s="292">
@@ -11743,7 +11735,7 @@
       </c>
       <c r="M111" s="293"/>
       <c r="N111" s="293" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O111" s="292"/>
       <c r="P111" s="294"/>
@@ -11834,11 +11826,11 @@
       </c>
       <c r="F114" s="255"/>
       <c r="G114" s="268" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H114" s="269"/>
       <c r="I114" s="290" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J114" s="291"/>
       <c r="K114" s="292">
@@ -11872,11 +11864,11 @@
       </c>
       <c r="F115" s="255"/>
       <c r="G115" s="283" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H115" s="269"/>
       <c r="I115" s="290" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J115" s="291"/>
       <c r="K115" s="292">
@@ -11940,11 +11932,11 @@
       </c>
       <c r="F117" s="267"/>
       <c r="G117" s="268" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H117" s="269"/>
       <c r="I117" s="295" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J117" s="270"/>
       <c r="K117" s="266">
@@ -12092,11 +12084,11 @@
       </c>
       <c r="F121" s="255"/>
       <c r="G121" s="268" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H121" s="269"/>
       <c r="I121" s="295" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J121" s="270"/>
       <c r="K121" s="266">
@@ -12169,14 +12161,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="255" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G123" s="268" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H123" s="269"/>
       <c r="I123" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J123" s="270"/>
       <c r="K123" s="266"/>
@@ -12208,11 +12200,11 @@
       </c>
       <c r="F124" s="255"/>
       <c r="G124" s="268" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H124" s="269"/>
       <c r="I124" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J124" s="270"/>
       <c r="K124" s="266">
@@ -12246,11 +12238,11 @@
       </c>
       <c r="F125" s="255"/>
       <c r="G125" s="268" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H125" s="269"/>
       <c r="I125" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J125" s="270"/>
       <c r="K125" s="266">
@@ -12284,13 +12276,13 @@
       </c>
       <c r="F126" s="255"/>
       <c r="G126" s="268" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H126" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I126" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J126" s="270"/>
       <c r="K126" s="266">
@@ -12324,13 +12316,13 @@
       </c>
       <c r="F127" s="255"/>
       <c r="G127" s="268" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H127" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I127" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J127" s="270"/>
       <c r="K127" s="266">
@@ -12370,7 +12362,7 @@
         <v>49</v>
       </c>
       <c r="I128" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J128" s="270"/>
       <c r="K128" s="266">
@@ -12412,7 +12404,7 @@
         <v>49</v>
       </c>
       <c r="I129" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J129" s="270"/>
       <c r="K129" s="266">
@@ -12448,13 +12440,13 @@
       </c>
       <c r="F130" s="255"/>
       <c r="G130" s="268" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H130" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I130" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J130" s="270"/>
       <c r="K130" s="266">
@@ -12472,7 +12464,7 @@
       </c>
       <c r="P130" s="271"/>
     </row>
-    <row r="131" spans="1:16" s="139" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="139" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="282">
         <v>129</v>
       </c>
@@ -12489,16 +12481,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="278" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G131" s="261" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H131" s="199" t="s">
         <v>147</v>
       </c>
       <c r="I131" s="259" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J131" s="160"/>
       <c r="K131" s="160"/>
@@ -12570,7 +12562,7 @@
       </c>
       <c r="H133" s="269"/>
       <c r="I133" s="265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J133" s="270"/>
       <c r="K133" s="266">
@@ -12704,11 +12696,11 @@
       </c>
       <c r="F137" s="255"/>
       <c r="G137" s="268" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H137" s="269"/>
       <c r="I137" s="265" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J137" s="270"/>
       <c r="K137" s="266">
@@ -12742,7 +12734,7 @@
       </c>
       <c r="F138" s="204"/>
       <c r="G138" s="261" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H138" s="262" t="s">
         <v>49</v>
@@ -12777,14 +12769,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="255" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G139" s="268" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H139" s="269"/>
       <c r="I139" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J139" s="270"/>
       <c r="K139" s="266">
@@ -12795,7 +12787,7 @@
       </c>
       <c r="M139" s="269"/>
       <c r="N139" s="269" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O139" s="266">
         <v>42630</v>
@@ -12820,7 +12812,7 @@
       </c>
       <c r="F140" s="204"/>
       <c r="G140" s="276" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H140" s="199"/>
       <c r="I140" s="197"/>
@@ -12853,10 +12845,10 @@
         <v>42630</v>
       </c>
       <c r="F141" s="274" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G141" s="276" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H141" s="262" t="s">
         <v>49</v>
@@ -12892,7 +12884,7 @@
       </c>
       <c r="F142" s="224"/>
       <c r="G142" s="225" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H142" s="214"/>
       <c r="I142" s="214"/>
@@ -12905,7 +12897,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="265" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C143" s="265" t="s">
         <v>16</v>
@@ -12918,10 +12910,10 @@
       </c>
       <c r="F143" s="297"/>
       <c r="G143" s="298" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I143" s="272" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K143" s="299">
         <v>42634</v>
@@ -12946,10 +12938,10 @@
       </c>
       <c r="F144" s="297"/>
       <c r="G144" s="300" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I144" s="272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K144" s="299">
         <v>42634</v>
@@ -12974,10 +12966,10 @@
       </c>
       <c r="F145" s="297"/>
       <c r="G145" s="300" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I145" s="272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K145" s="299">
         <v>42634</v>
@@ -13001,10 +12993,10 @@
         <v>42633</v>
       </c>
       <c r="F146" s="226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G146" s="227" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H146" s="10"/>
       <c r="P146" s="264"/>
@@ -13026,10 +13018,10 @@
         <v>42633</v>
       </c>
       <c r="F147" s="226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G147" s="227" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H147" s="10"/>
       <c r="P147" s="264"/>
@@ -13051,7 +13043,7 @@
         <v>42633</v>
       </c>
       <c r="F148" s="226" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G148" s="227" t="s">
         <v>178</v>
@@ -13100,7 +13092,7 @@
       </c>
       <c r="F150" s="226"/>
       <c r="G150" s="228" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H150" s="10"/>
       <c r="P150" s="264"/>
@@ -13122,13 +13114,13 @@
         <v>42636</v>
       </c>
       <c r="F151" s="251" t="s">
+        <v>255</v>
+      </c>
+      <c r="G151" s="244" t="s">
         <v>256</v>
       </c>
-      <c r="G151" s="244" t="s">
-        <v>257</v>
-      </c>
       <c r="H151" s="245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I151" s="242"/>
       <c r="J151" s="246"/>
@@ -13156,13 +13148,13 @@
         <v>42636</v>
       </c>
       <c r="F152" s="251" t="s">
+        <v>253</v>
+      </c>
+      <c r="G152" s="244" t="s">
+        <v>257</v>
+      </c>
+      <c r="H152" s="245" t="s">
         <v>254</v>
-      </c>
-      <c r="G152" s="244" t="s">
-        <v>258</v>
-      </c>
-      <c r="H152" s="245" t="s">
-        <v>255</v>
       </c>
       <c r="I152" s="242"/>
       <c r="J152" s="246"/>
@@ -13190,13 +13182,13 @@
         <v>42636</v>
       </c>
       <c r="F153" s="251" t="s">
+        <v>253</v>
+      </c>
+      <c r="G153" s="244" t="s">
+        <v>258</v>
+      </c>
+      <c r="H153" s="245" t="s">
         <v>254</v>
-      </c>
-      <c r="G153" s="244" t="s">
-        <v>259</v>
-      </c>
-      <c r="H153" s="245" t="s">
-        <v>255</v>
       </c>
       <c r="I153" s="242"/>
       <c r="J153" s="246"/>
@@ -13224,10 +13216,10 @@
         <v>42636</v>
       </c>
       <c r="F154" s="278" t="s">
+        <v>316</v>
+      </c>
+      <c r="G154" s="276" t="s">
         <v>317</v>
-      </c>
-      <c r="G154" s="276" t="s">
-        <v>318</v>
       </c>
       <c r="H154" s="262" t="s">
         <v>49</v>
@@ -13258,10 +13250,10 @@
         <v>42636</v>
       </c>
       <c r="F155" s="278" t="s">
+        <v>321</v>
+      </c>
+      <c r="G155" s="284" t="s">
         <v>322</v>
-      </c>
-      <c r="G155" s="284" t="s">
-        <v>323</v>
       </c>
       <c r="H155" s="262"/>
       <c r="I155" s="259"/>
@@ -13290,13 +13282,13 @@
         <v>42636</v>
       </c>
       <c r="F156" s="251" t="s">
+        <v>265</v>
+      </c>
+      <c r="G156" s="250" t="s">
         <v>266</v>
       </c>
-      <c r="G156" s="250" t="s">
-        <v>267</v>
-      </c>
       <c r="H156" s="245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I156" s="242"/>
       <c r="J156" s="246"/>
@@ -13324,10 +13316,10 @@
         <v>42636</v>
       </c>
       <c r="F157" s="251" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G157" s="244" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H157" s="245"/>
       <c r="I157" s="242"/>
@@ -13356,13 +13348,13 @@
         <v>42636</v>
       </c>
       <c r="F158" s="251" t="s">
+        <v>268</v>
+      </c>
+      <c r="G158" s="244" t="s">
         <v>269</v>
       </c>
-      <c r="G158" s="244" t="s">
-        <v>270</v>
-      </c>
       <c r="H158" s="245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I158" s="242"/>
       <c r="J158" s="246"/>
@@ -13390,13 +13382,13 @@
         <v>42636</v>
       </c>
       <c r="F159" s="251" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G159" s="244" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H159" s="245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I159" s="242"/>
       <c r="J159" s="246"/>
@@ -13424,13 +13416,13 @@
         <v>42636</v>
       </c>
       <c r="F160" s="251" t="s">
+        <v>274</v>
+      </c>
+      <c r="G160" s="250" t="s">
         <v>275</v>
       </c>
-      <c r="G160" s="250" t="s">
-        <v>276</v>
-      </c>
       <c r="H160" s="245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I160" s="242"/>
       <c r="J160" s="246"/>
@@ -13458,10 +13450,10 @@
         <v>42636</v>
       </c>
       <c r="F161" s="251" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G161" s="244" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H161" s="245"/>
       <c r="I161" s="242"/>
@@ -13490,10 +13482,10 @@
         <v>42636</v>
       </c>
       <c r="F162" s="278" t="s">
+        <v>366</v>
+      </c>
+      <c r="G162" s="277" t="s">
         <v>367</v>
-      </c>
-      <c r="G162" s="277" t="s">
-        <v>368</v>
       </c>
       <c r="H162" s="262" t="s">
         <v>49</v>
@@ -13524,10 +13516,10 @@
         <v>42636</v>
       </c>
       <c r="F163" s="278" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G163" s="284" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H163" s="262" t="s">
         <v>49</v>
@@ -13558,10 +13550,10 @@
         <v>42636</v>
       </c>
       <c r="F164" s="278" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G164" s="277" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H164" s="262" t="s">
         <v>49</v>
@@ -13592,10 +13584,10 @@
         <v>42636</v>
       </c>
       <c r="F165" s="278" t="s">
+        <v>332</v>
+      </c>
+      <c r="G165" s="284" t="s">
         <v>333</v>
-      </c>
-      <c r="G165" s="284" t="s">
-        <v>334</v>
       </c>
       <c r="H165" s="262"/>
       <c r="I165" s="259"/>
@@ -13624,10 +13616,10 @@
         <v>42636</v>
       </c>
       <c r="F166" s="278" t="s">
+        <v>336</v>
+      </c>
+      <c r="G166" s="284" t="s">
         <v>337</v>
-      </c>
-      <c r="G166" s="284" t="s">
-        <v>338</v>
       </c>
       <c r="H166" s="262" t="s">
         <v>49</v>
@@ -13658,10 +13650,10 @@
         <v>42636</v>
       </c>
       <c r="F167" s="278" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G167" s="284" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H167" s="262" t="s">
         <v>49</v>
@@ -13692,10 +13684,10 @@
         <v>42636</v>
       </c>
       <c r="F168" s="278" t="s">
+        <v>353</v>
+      </c>
+      <c r="G168" s="277" t="s">
         <v>354</v>
-      </c>
-      <c r="G168" s="277" t="s">
-        <v>355</v>
       </c>
       <c r="H168" s="262"/>
       <c r="I168" s="259"/>
@@ -13724,10 +13716,10 @@
         <v>42636</v>
       </c>
       <c r="F169" s="278" t="s">
+        <v>355</v>
+      </c>
+      <c r="G169" s="284" t="s">
         <v>356</v>
-      </c>
-      <c r="G169" s="284" t="s">
-        <v>357</v>
       </c>
       <c r="H169" s="262"/>
       <c r="I169" s="259"/>
@@ -13756,10 +13748,10 @@
         <v>42636</v>
       </c>
       <c r="F170" s="278" t="s">
+        <v>357</v>
+      </c>
+      <c r="G170" s="277" t="s">
         <v>358</v>
-      </c>
-      <c r="G170" s="277" t="s">
-        <v>359</v>
       </c>
       <c r="H170" s="262" t="s">
         <v>49</v>
@@ -13777,11 +13769,11 @@
   <autoFilter ref="A2:P170">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
-        <filter val="返回"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="434">
   <si>
     <t>编号</t>
   </si>
@@ -7527,7 +7527,7 @@
   <dimension ref="A1:P170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O156" sqref="O156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13265,7 +13265,7 @@
       <c r="O155" s="260"/>
       <c r="P155" s="264"/>
     </row>
-    <row r="156" spans="1:16" s="239" customFormat="1">
+    <row r="156" spans="1:16" s="239" customFormat="1" hidden="1">
       <c r="A156" s="282">
         <v>154</v>
       </c>
@@ -13293,10 +13293,14 @@
       <c r="I156" s="242"/>
       <c r="J156" s="246"/>
       <c r="K156" s="246"/>
-      <c r="L156" s="242"/>
+      <c r="L156" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M156" s="245"/>
       <c r="N156" s="245"/>
-      <c r="O156" s="243"/>
+      <c r="O156" s="243">
+        <v>42637</v>
+      </c>
       <c r="P156" s="264"/>
     </row>
     <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$174</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="443">
   <si>
     <t>编号</t>
   </si>
@@ -5172,6 +5172,98 @@
   <si>
     <t>(1)无法做。目前的程序架构已经弄完了，发音都是基于反显来做的，逐字只能反显一个字符。（2）已修改。（3）按7键不能往前选择的问题已修改。但同1一样，不能在选的过程中保留反显。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐句、逐字</t>
+  </si>
+  <si>
+    <t>【设置字体：中字号】
+1.文本文档--目录浏览--内存，"文本样例：文件夹=》中英数叶芝.txt文件，自动播放模式第一页第一行，按9键下一字，仅语音提示“换行”，但是无反显光标。
+【测试结果】第一行按9键下一字切换模式光标没有显示。（按6键下一句也有同样现象）</t>
+  </si>
+  <si>
+    <t>删除、清空</t>
+  </si>
+  <si>
+    <t>进入“我的收藏=》删除当前”,当“确认删除   是 否”对话框时按【返回】键退出后，没有声音反馈。=》应该播报反显项。
+涉及【我的收藏】【最近使用文件】【书签管理】三处的删除、清空操作，均是如此。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>我的收藏
+最近使用文件</t>
+  </si>
+  <si>
+    <r>
+      <t>【操作步骤】
+1.进入文件列表，分别添加3个文件到【我的收藏】。
+2.进入我的收藏,移动光标反选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后一个文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，按菜单键进入功能菜单，执行“删除当前”操作，待提示“确认删除  是 否”语音播放完成，按【确认】删除。
+删除成功后，仅有语音播报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除成功，没有弹出提示框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后屏幕闪黑屏后即退到上级菜单，同时tts声音丢失。
+【测试结果】删除我的收藏文件导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tts语音消失。最近使用文件，同此。</t>
+    </r>
+  </si>
+  <si>
+    <t>空行</t>
+  </si>
+  <si>
+    <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
+逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
   </si>
 </sst>
 </file>
@@ -6090,7 +6182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6997,6 +7089,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -7524,10 +7623,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P170"/>
+  <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O156" sqref="O156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7760,7 +7859,7 @@
       </c>
       <c r="P6" s="211"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="27" hidden="1">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="27">
       <c r="A7" s="282">
         <v>5</v>
       </c>
@@ -8208,7 +8307,7 @@
       </c>
       <c r="P18" s="200"/>
     </row>
-    <row r="19" spans="1:16" s="53" customFormat="1" ht="229.5" hidden="1">
+    <row r="19" spans="1:16" s="53" customFormat="1" ht="229.5">
       <c r="A19" s="282">
         <v>17</v>
       </c>
@@ -8242,7 +8341,7 @@
       <c r="O19" s="157"/>
       <c r="P19" s="200"/>
     </row>
-    <row r="20" spans="1:16" s="53" customFormat="1" ht="67.5" hidden="1">
+    <row r="20" spans="1:16" s="53" customFormat="1" ht="67.5">
       <c r="A20" s="282">
         <v>18</v>
       </c>
@@ -8276,7 +8375,7 @@
       <c r="O20" s="157"/>
       <c r="P20" s="200"/>
     </row>
-    <row r="21" spans="1:16" s="53" customFormat="1" ht="189" hidden="1">
+    <row r="21" spans="1:16" s="53" customFormat="1" ht="189">
       <c r="A21" s="282">
         <v>19</v>
       </c>
@@ -8498,7 +8597,7 @@
       <c r="O26" s="207"/>
       <c r="P26" s="211"/>
     </row>
-    <row r="27" spans="1:16" ht="135" hidden="1">
+    <row r="27" spans="1:16" ht="135">
       <c r="A27" s="282">
         <v>25</v>
       </c>
@@ -8536,7 +8635,7 @@
       </c>
       <c r="P27" s="200"/>
     </row>
-    <row r="28" spans="1:16" ht="229.5" hidden="1">
+    <row r="28" spans="1:16" ht="229.5">
       <c r="A28" s="282">
         <v>26</v>
       </c>
@@ -9259,7 +9358,7 @@
       </c>
       <c r="P46" s="211"/>
     </row>
-    <row r="47" spans="1:16" s="53" customFormat="1" ht="121.5" hidden="1">
+    <row r="47" spans="1:16" s="53" customFormat="1" ht="121.5">
       <c r="A47" s="282">
         <v>45</v>
       </c>
@@ -9367,7 +9466,7 @@
       <c r="O49" s="157"/>
       <c r="P49" s="200"/>
     </row>
-    <row r="50" spans="1:16" s="201" customFormat="1" ht="121.5" hidden="1">
+    <row r="50" spans="1:16" s="201" customFormat="1" ht="121.5">
       <c r="A50" s="282">
         <v>48</v>
       </c>
@@ -9443,7 +9542,7 @@
       <c r="O51" s="207"/>
       <c r="P51" s="211"/>
     </row>
-    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5" hidden="1">
+    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5">
       <c r="A52" s="282">
         <v>50</v>
       </c>
@@ -9515,7 +9614,7 @@
       <c r="O53" s="207"/>
       <c r="P53" s="211"/>
     </row>
-    <row r="54" spans="1:16" s="85" customFormat="1" ht="108" hidden="1">
+    <row r="54" spans="1:16" s="85" customFormat="1" ht="108">
       <c r="A54" s="282">
         <v>52</v>
       </c>
@@ -9633,7 +9732,7 @@
       </c>
       <c r="P56" s="211"/>
     </row>
-    <row r="57" spans="1:16" s="85" customFormat="1" ht="189" hidden="1">
+    <row r="57" spans="1:16" s="85" customFormat="1" ht="189">
       <c r="A57" s="282">
         <v>55</v>
       </c>
@@ -10402,7 +10501,7 @@
       </c>
       <c r="P75" s="211"/>
     </row>
-    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5" hidden="1">
+    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5">
       <c r="A76" s="282">
         <v>74</v>
       </c>
@@ -10592,7 +10691,7 @@
       <c r="O80" s="157"/>
       <c r="P80" s="200"/>
     </row>
-    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
+    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A81" s="282">
         <v>79</v>
       </c>
@@ -11586,7 +11685,7 @@
       </c>
       <c r="P107" s="271"/>
     </row>
-    <row r="108" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
+    <row r="108" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A108" s="282">
         <v>106</v>
       </c>
@@ -12464,7 +12563,7 @@
       </c>
       <c r="P130" s="271"/>
     </row>
-    <row r="131" spans="1:16" s="139" customFormat="1" ht="40.5" hidden="1">
+    <row r="131" spans="1:16" s="139" customFormat="1" ht="40.5">
       <c r="A131" s="282">
         <v>129</v>
       </c>
@@ -13265,7 +13364,7 @@
       <c r="O155" s="260"/>
       <c r="P155" s="264"/>
     </row>
-    <row r="156" spans="1:16" s="239" customFormat="1" hidden="1">
+    <row r="156" spans="1:16" s="239" customFormat="1">
       <c r="A156" s="282">
         <v>154</v>
       </c>
@@ -13769,15 +13868,115 @@
       <c r="O170" s="260"/>
       <c r="P170" s="264"/>
     </row>
+    <row r="171" spans="1:16" ht="54">
+      <c r="A171" s="282">
+        <v>169</v>
+      </c>
+      <c r="B171" s="259" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="273">
+        <v>42634</v>
+      </c>
+      <c r="E171" s="274">
+        <v>42636</v>
+      </c>
+      <c r="F171" s="220" t="s">
+        <v>434</v>
+      </c>
+      <c r="G171" s="221" t="s">
+        <v>435</v>
+      </c>
+      <c r="H171" s="262"/>
+    </row>
+    <row r="172" spans="1:16" ht="40.5">
+      <c r="A172" s="282">
+        <v>170</v>
+      </c>
+      <c r="B172" s="259" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="273">
+        <v>42634</v>
+      </c>
+      <c r="E172" s="274">
+        <v>42636</v>
+      </c>
+      <c r="F172" s="226" t="s">
+        <v>436</v>
+      </c>
+      <c r="G172" s="221" t="s">
+        <v>437</v>
+      </c>
+      <c r="H172" s="262" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="94.5">
+      <c r="A173" s="282">
+        <v>171</v>
+      </c>
+      <c r="B173" s="259" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="273">
+        <v>42634</v>
+      </c>
+      <c r="E173" s="274">
+        <v>42636</v>
+      </c>
+      <c r="F173" s="302" t="s">
+        <v>439</v>
+      </c>
+      <c r="G173" s="303" t="s">
+        <v>440</v>
+      </c>
+      <c r="H173" s="262" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="27">
+      <c r="A174" s="282">
+        <v>172</v>
+      </c>
+      <c r="B174" s="259" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="273">
+        <v>42634</v>
+      </c>
+      <c r="E174" s="274">
+        <v>42636</v>
+      </c>
+      <c r="F174" s="278" t="s">
+        <v>441</v>
+      </c>
+      <c r="G174" s="221" t="s">
+        <v>442</v>
+      </c>
+      <c r="H174" s="262"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:P170">
+  <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="444">
   <si>
     <t>编号</t>
   </si>
@@ -1032,10 +1032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加了每次启动都判断创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5264,6 +5260,14 @@
   <si>
     <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
 逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
+  </si>
+  <si>
+    <t>添加音量设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新每次启动都判断创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7453,16 +7457,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="196" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="192" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="192" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="193" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="193" t="s">
-        <v>140</v>
       </c>
       <c r="G2" s="189"/>
     </row>
@@ -7475,13 +7479,13 @@
         <v>42623</v>
       </c>
       <c r="D3" s="190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="180">
         <v>42616</v>
       </c>
       <c r="F3" s="256" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="168"/>
     </row>
@@ -7494,13 +7498,13 @@
         <v>42627</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="203">
         <v>42625</v>
       </c>
       <c r="F4" s="279" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="168"/>
     </row>
@@ -7512,13 +7516,13 @@
         <v>42630</v>
       </c>
       <c r="D5" s="190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="203">
         <v>42625</v>
       </c>
       <c r="F5" s="279" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="301" customFormat="1">
@@ -7529,13 +7533,13 @@
         <v>42633</v>
       </c>
       <c r="D6" s="280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="273">
         <v>42632</v>
       </c>
       <c r="F6" s="279" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="257" customFormat="1">
@@ -7546,13 +7550,13 @@
         <v>42636</v>
       </c>
       <c r="D7" s="280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="273">
         <v>42634</v>
       </c>
       <c r="F7" s="279" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7625,8 +7629,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7670,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>4</v>
@@ -7720,13 +7724,13 @@
         <v>42555</v>
       </c>
       <c r="F3" s="253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" s="233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H3" s="234" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I3" s="230"/>
       <c r="J3" s="235"/>
@@ -7834,25 +7838,25 @@
         <v>42555</v>
       </c>
       <c r="F6" s="252" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G6" s="213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H6" s="210"/>
       <c r="I6" s="206" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J6" s="151"/>
       <c r="K6" s="207">
         <v>42634</v>
       </c>
       <c r="L6" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M6" s="210"/>
       <c r="N6" s="210" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O6" s="207">
         <v>42631</v>
@@ -7876,10 +7880,10 @@
         <v>42555</v>
       </c>
       <c r="F7" s="247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G7" s="244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="216"/>
@@ -7988,10 +7992,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="217" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G10" s="261" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H10" s="91" t="s">
         <v>49</v>
@@ -8133,7 +8137,7 @@
       </c>
       <c r="F14" s="252"/>
       <c r="G14" s="209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" s="210"/>
       <c r="I14" s="206" t="s">
@@ -8171,7 +8175,7 @@
       </c>
       <c r="F15" s="252"/>
       <c r="G15" s="209" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="210"/>
       <c r="I15" s="206" t="s">
@@ -8209,7 +8213,7 @@
       </c>
       <c r="F16" s="252"/>
       <c r="G16" s="209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="210"/>
       <c r="I16" s="206" t="s">
@@ -8247,7 +8251,7 @@
       </c>
       <c r="F17" s="252"/>
       <c r="G17" s="209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="210"/>
       <c r="I17" s="206" t="s">
@@ -8285,22 +8289,22 @@
       </c>
       <c r="F18" s="252"/>
       <c r="G18" s="209" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="210"/>
       <c r="I18" s="206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J18" s="151"/>
       <c r="K18" s="207">
         <v>42632</v>
       </c>
       <c r="L18" s="216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M18" s="199"/>
       <c r="N18" s="199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O18" s="157">
         <v>42632</v>
@@ -8324,14 +8328,14 @@
         <v>42555</v>
       </c>
       <c r="F19" s="217" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" s="261" t="s">
         <v>382</v>
-      </c>
-      <c r="G19" s="261" t="s">
-        <v>383</v>
       </c>
       <c r="H19" s="199"/>
       <c r="I19" s="259" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -8358,14 +8362,14 @@
         <v>42555</v>
       </c>
       <c r="F20" s="217" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="218" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="199"/>
       <c r="I20" s="259" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -8392,14 +8396,14 @@
         <v>42555</v>
       </c>
       <c r="F21" s="217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G21" s="261" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="259" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -8427,7 +8431,7 @@
       </c>
       <c r="F22" s="252"/>
       <c r="G22" s="209" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="210"/>
       <c r="I22" s="206" t="s">
@@ -8465,11 +8469,11 @@
       </c>
       <c r="F23" s="252"/>
       <c r="G23" s="209" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23" s="210"/>
       <c r="I23" s="206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" s="151"/>
       <c r="K23" s="207">
@@ -8503,11 +8507,11 @@
       </c>
       <c r="F24" s="252"/>
       <c r="G24" s="209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H24" s="210"/>
       <c r="I24" s="206" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J24" s="151"/>
       <c r="K24" s="207">
@@ -8541,11 +8545,11 @@
       </c>
       <c r="F25" s="252"/>
       <c r="G25" s="209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="210"/>
       <c r="I25" s="206" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J25" s="151"/>
       <c r="K25" s="207">
@@ -8556,7 +8560,7 @@
       </c>
       <c r="M25" s="199"/>
       <c r="N25" s="199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O25" s="157">
         <v>42631</v>
@@ -8614,10 +8618,10 @@
         <v>42555</v>
       </c>
       <c r="F27" s="247" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G27" s="276" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H27" s="91" t="s">
         <v>85</v>
@@ -8652,16 +8656,16 @@
         <v>42555</v>
       </c>
       <c r="F28" s="217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G28" s="261" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H28" s="199" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="259" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="F29" s="217"/>
       <c r="G29" s="218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="22"/>
@@ -8719,11 +8723,11 @@
       </c>
       <c r="F30" s="267"/>
       <c r="G30" s="268" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="269"/>
       <c r="I30" s="265" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J30" s="270"/>
       <c r="K30" s="266">
@@ -8752,14 +8756,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="267" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="268" t="s">
         <v>390</v>
-      </c>
-      <c r="G31" s="268" t="s">
-        <v>391</v>
       </c>
       <c r="H31" s="269"/>
       <c r="I31" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J31" s="270"/>
       <c r="K31" s="266">
@@ -8789,7 +8793,7 @@
       </c>
       <c r="F32" s="252"/>
       <c r="G32" s="209" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H32" s="210"/>
       <c r="I32" s="206" t="s">
@@ -8827,7 +8831,7 @@
       </c>
       <c r="F33" s="252"/>
       <c r="G33" s="209" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H33" s="210"/>
       <c r="I33" s="206" t="s">
@@ -8865,7 +8869,7 @@
       </c>
       <c r="F34" s="252"/>
       <c r="G34" s="209" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" s="210"/>
       <c r="I34" s="206" t="s">
@@ -8903,7 +8907,7 @@
       </c>
       <c r="F35" s="252"/>
       <c r="G35" s="209" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H35" s="210"/>
       <c r="I35" s="206" t="s">
@@ -8941,13 +8945,13 @@
       </c>
       <c r="F36" s="252"/>
       <c r="G36" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="73" t="s">
+      <c r="I36" s="163" t="s">
         <v>143</v>
-      </c>
-      <c r="I36" s="163" t="s">
-        <v>144</v>
       </c>
       <c r="J36" s="151"/>
       <c r="K36" s="150">
@@ -8978,25 +8982,25 @@
         <v>42555</v>
       </c>
       <c r="F37" s="252" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="209" t="s">
         <v>260</v>
-      </c>
-      <c r="G37" s="209" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="210"/>
       <c r="I37" s="206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J37" s="151"/>
       <c r="K37" s="207">
         <v>42634</v>
       </c>
       <c r="L37" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" s="210"/>
       <c r="N37" s="210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O37" s="207">
         <v>42631</v>
@@ -9020,26 +9024,26 @@
         <v>42555</v>
       </c>
       <c r="F38" s="210" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="209" t="s">
-        <v>250</v>
-      </c>
       <c r="I38" s="206" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J38" s="151"/>
       <c r="K38" s="207">
         <v>42634</v>
       </c>
       <c r="L38" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M38" s="210" t="s">
+        <v>250</v>
+      </c>
+      <c r="N38" s="210" t="s">
         <v>251</v>
-      </c>
-      <c r="N38" s="210" t="s">
-        <v>252</v>
       </c>
       <c r="O38" s="207">
         <v>42631</v>
@@ -9099,14 +9103,14 @@
         <v>42555</v>
       </c>
       <c r="F40" s="252" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G40" s="209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H40" s="210"/>
       <c r="I40" s="206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J40" s="151"/>
       <c r="K40" s="207">
@@ -9117,7 +9121,7 @@
       </c>
       <c r="M40" s="210"/>
       <c r="N40" s="210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O40" s="207"/>
       <c r="P40" s="211"/>
@@ -9140,7 +9144,7 @@
       </c>
       <c r="F41" s="252"/>
       <c r="G41" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="163" t="s">
@@ -9155,7 +9159,7 @@
       </c>
       <c r="M41" s="210"/>
       <c r="N41" s="210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O41" s="207">
         <v>42616</v>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="F42" s="252"/>
       <c r="G42" s="209" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="210" t="s">
         <v>49</v>
@@ -9220,7 +9224,7 @@
       </c>
       <c r="F43" s="252"/>
       <c r="G43" s="213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H43" s="210" t="s">
         <v>49</v>
@@ -9260,11 +9264,11 @@
       </c>
       <c r="F44" s="252"/>
       <c r="G44" s="209" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H44" s="210"/>
       <c r="I44" s="206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J44" s="151"/>
       <c r="K44" s="207">
@@ -9298,11 +9302,11 @@
       </c>
       <c r="F45" s="252"/>
       <c r="G45" s="209" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H45" s="210"/>
       <c r="I45" s="206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J45" s="151"/>
       <c r="K45" s="207">
@@ -9335,14 +9339,14 @@
         <v>42555</v>
       </c>
       <c r="F46" s="252" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G46" s="209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H46" s="210"/>
       <c r="I46" s="206" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J46" s="151"/>
       <c r="K46" s="207">
@@ -9375,10 +9379,10 @@
         <v>42555</v>
       </c>
       <c r="F47" s="247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G47" s="218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="87" t="s">
@@ -9414,13 +9418,13 @@
       </c>
       <c r="F48" s="208"/>
       <c r="G48" s="209" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" s="210" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="206" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J48" s="151"/>
       <c r="K48" s="207">
@@ -9449,13 +9453,13 @@
         <v>42558</v>
       </c>
       <c r="F49" s="217" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" s="276" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" s="262" t="s">
         <v>392</v>
-      </c>
-      <c r="G49" s="276" t="s">
-        <v>394</v>
-      </c>
-      <c r="H49" s="262" t="s">
-        <v>393</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="27"/>
@@ -9483,16 +9487,16 @@
         <v>42558</v>
       </c>
       <c r="F50" s="278" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G50" s="244" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H50" s="199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="197" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="205"/>
       <c r="K50" s="203"/>
@@ -9559,10 +9563,10 @@
         <v>42612</v>
       </c>
       <c r="F52" s="278" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G52" s="244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H52" s="91"/>
       <c r="I52" s="197"/>
@@ -9595,14 +9599,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="208" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G53" s="209" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H53" s="210"/>
       <c r="I53" s="275" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J53" s="151"/>
       <c r="K53" s="207">
@@ -9631,10 +9635,10 @@
         <v>42612</v>
       </c>
       <c r="F54" s="247" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G54" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H54" s="91" t="s">
         <v>49</v>
@@ -9647,7 +9651,7 @@
       </c>
       <c r="M54" s="199"/>
       <c r="N54" s="262" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O54" s="157">
         <v>42634</v>
@@ -9672,7 +9676,7 @@
       </c>
       <c r="F55" s="252"/>
       <c r="G55" s="209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="210" t="s">
         <v>49</v>
@@ -9712,7 +9716,7 @@
       </c>
       <c r="F56" s="252"/>
       <c r="G56" s="209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H56" s="210"/>
       <c r="I56" s="206" t="s">
@@ -9749,10 +9753,10 @@
         <v>42612</v>
       </c>
       <c r="F57" s="247" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G57" s="250" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H57" s="91" t="s">
         <v>49</v>
@@ -9790,11 +9794,11 @@
       </c>
       <c r="F58" s="255"/>
       <c r="G58" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H58" s="59"/>
       <c r="I58" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J58" s="60"/>
       <c r="K58" s="56">
@@ -9828,11 +9832,11 @@
       </c>
       <c r="F59" s="255"/>
       <c r="G59" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H59" s="59"/>
       <c r="I59" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J59" s="60"/>
       <c r="K59" s="56">
@@ -9866,21 +9870,21 @@
       </c>
       <c r="F60" s="252"/>
       <c r="G60" s="209" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I60" s="210" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J60" s="151"/>
       <c r="K60" s="207">
         <v>42634</v>
       </c>
       <c r="L60" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M60" s="210"/>
       <c r="N60" s="210" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O60" s="207">
         <v>42630</v>
@@ -9904,14 +9908,14 @@
         <v>42612</v>
       </c>
       <c r="F61" s="247" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H61" s="91"/>
       <c r="I61" s="242" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J61" s="92"/>
       <c r="K61" s="92"/>
@@ -9942,25 +9946,25 @@
         <v>42612</v>
       </c>
       <c r="F62" s="252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G62" s="209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H62" s="210"/>
       <c r="I62" s="210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J62" s="151"/>
       <c r="K62" s="207">
         <v>42634</v>
       </c>
       <c r="L62" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M62" s="210"/>
       <c r="N62" s="210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O62" s="207">
         <v>42630</v>
@@ -10024,27 +10028,27 @@
         <v>42612</v>
       </c>
       <c r="F64" s="252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G64" s="209" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H64" s="210" t="s">
         <v>49</v>
       </c>
       <c r="I64" s="210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J64" s="151"/>
       <c r="K64" s="207">
         <v>42634</v>
       </c>
       <c r="L64" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M64" s="210"/>
       <c r="N64" s="210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O64" s="207">
         <v>42630</v>
@@ -10268,16 +10272,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="252" t="s">
+        <v>295</v>
+      </c>
+      <c r="G70" s="209" t="s">
         <v>296</v>
-      </c>
-      <c r="G70" s="209" t="s">
-        <v>297</v>
       </c>
       <c r="H70" s="210" t="s">
         <v>49</v>
       </c>
       <c r="I70" s="206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J70" s="151"/>
       <c r="K70" s="207">
@@ -10288,7 +10292,7 @@
       </c>
       <c r="M70" s="210"/>
       <c r="N70" s="210" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O70" s="207">
         <v>42616</v>
@@ -10313,13 +10317,13 @@
       </c>
       <c r="F71" s="252"/>
       <c r="G71" s="209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" s="210" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I71" s="206" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J71" s="151"/>
       <c r="K71" s="207">
@@ -10394,16 +10398,16 @@
         <v>42612</v>
       </c>
       <c r="F73" s="252" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G73" s="213" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H73" s="210" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I73" s="206" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J73" s="151"/>
       <c r="K73" s="207">
@@ -10437,7 +10441,7 @@
       </c>
       <c r="F74" s="252"/>
       <c r="G74" s="209" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H74" s="210" t="s">
         <v>49</v>
@@ -10518,14 +10522,14 @@
         <v>42612</v>
       </c>
       <c r="F76" s="251" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G76" s="276" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H76" s="91"/>
       <c r="I76" s="259" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J76" s="67"/>
       <c r="K76" s="65"/>
@@ -10533,11 +10537,11 @@
         <v>60</v>
       </c>
       <c r="M76" s="199"/>
-      <c r="N76" s="199" t="s">
-        <v>132</v>
+      <c r="N76" s="262" t="s">
+        <v>443</v>
       </c>
       <c r="O76" s="203">
-        <v>42616</v>
+        <v>42639</v>
       </c>
       <c r="P76" s="200"/>
     </row>
@@ -10559,11 +10563,11 @@
       </c>
       <c r="F77" s="255"/>
       <c r="G77" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J77" s="60"/>
       <c r="K77" s="56">
@@ -10597,7 +10601,7 @@
       </c>
       <c r="F78" s="252"/>
       <c r="G78" s="209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H78" s="210"/>
       <c r="I78" s="206" t="s">
@@ -10612,7 +10616,7 @@
       </c>
       <c r="M78" s="210"/>
       <c r="N78" s="210" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O78" s="207">
         <v>42616</v>
@@ -10637,7 +10641,7 @@
       </c>
       <c r="F79" s="252"/>
       <c r="G79" s="209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H79" s="210"/>
       <c r="I79" s="206" t="s">
@@ -10674,10 +10678,10 @@
         <v>42612</v>
       </c>
       <c r="F80" s="217" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G80" s="198" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H80" s="199" t="s">
         <v>49</v>
@@ -10708,10 +10712,10 @@
         <v>42612</v>
       </c>
       <c r="F81" s="247" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G81" s="261" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H81" s="91"/>
       <c r="I81" s="197" t="s">
@@ -10723,11 +10727,11 @@
         <v>60</v>
       </c>
       <c r="M81" s="199"/>
-      <c r="N81" s="199" t="s">
-        <v>136</v>
+      <c r="N81" s="262" t="s">
+        <v>442</v>
       </c>
       <c r="O81" s="157">
-        <v>42625</v>
+        <v>42639</v>
       </c>
       <c r="P81" s="200"/>
     </row>
@@ -10749,7 +10753,7 @@
       </c>
       <c r="F82" s="217"/>
       <c r="G82" s="198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H82" s="91" t="s">
         <v>49</v>
@@ -10819,13 +10823,13 @@
       </c>
       <c r="F84" s="252"/>
       <c r="G84" s="213" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H84" s="210" t="s">
         <v>49</v>
       </c>
       <c r="I84" s="206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J84" s="151"/>
       <c r="K84" s="207">
@@ -10863,7 +10867,7 @@
       </c>
       <c r="H85" s="91"/>
       <c r="I85" s="275" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J85" s="74"/>
       <c r="K85" s="70"/>
@@ -10890,16 +10894,16 @@
         <v>42616</v>
       </c>
       <c r="F86" s="255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G86" s="283" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H86" s="269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I86" s="265" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J86" s="270"/>
       <c r="K86" s="266">
@@ -10910,7 +10914,7 @@
       </c>
       <c r="M86" s="269"/>
       <c r="N86" s="269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O86" s="266"/>
       <c r="P86" s="271"/>
@@ -10932,16 +10936,16 @@
         <v>42616</v>
       </c>
       <c r="F87" s="255" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G87" s="268" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H87" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I87" s="265" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J87" s="270"/>
       <c r="K87" s="266">
@@ -10952,7 +10956,7 @@
       </c>
       <c r="M87" s="269"/>
       <c r="N87" s="269" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O87" s="266"/>
       <c r="P87" s="271"/>
@@ -10974,10 +10978,10 @@
         <v>42616</v>
       </c>
       <c r="F88" s="222" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G88" s="277" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P88" s="264"/>
     </row>
@@ -10999,13 +11003,13 @@
       </c>
       <c r="F89" s="267"/>
       <c r="G89" s="268" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H89" s="269" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I89" s="265" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J89" s="270"/>
       <c r="K89" s="266">
@@ -11035,13 +11039,13 @@
       </c>
       <c r="F90" s="255"/>
       <c r="G90" s="268" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H90" s="269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I90" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J90" s="270"/>
       <c r="K90" s="266">
@@ -11052,7 +11056,7 @@
       </c>
       <c r="M90" s="269"/>
       <c r="N90" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O90" s="266"/>
       <c r="P90" s="271"/>
@@ -11075,11 +11079,11 @@
       </c>
       <c r="F91" s="255"/>
       <c r="G91" s="268" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H91" s="269"/>
       <c r="I91" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J91" s="270"/>
       <c r="K91" s="266">
@@ -11090,7 +11094,7 @@
       </c>
       <c r="M91" s="269"/>
       <c r="N91" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O91" s="266"/>
       <c r="P91" s="271"/>
@@ -11113,11 +11117,11 @@
       </c>
       <c r="F92" s="255"/>
       <c r="G92" s="268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H92" s="269"/>
       <c r="I92" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J92" s="270"/>
       <c r="K92" s="266">
@@ -11128,7 +11132,7 @@
       </c>
       <c r="M92" s="269"/>
       <c r="N92" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O92" s="266"/>
       <c r="P92" s="271"/>
@@ -11151,11 +11155,11 @@
       </c>
       <c r="F93" s="255"/>
       <c r="G93" s="268" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H93" s="269"/>
       <c r="I93" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J93" s="270"/>
       <c r="K93" s="266">
@@ -11166,7 +11170,7 @@
       </c>
       <c r="M93" s="269"/>
       <c r="N93" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O93" s="266"/>
       <c r="P93" s="271"/>
@@ -11189,11 +11193,11 @@
       </c>
       <c r="F94" s="255"/>
       <c r="G94" s="268" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H94" s="269"/>
       <c r="I94" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J94" s="270"/>
       <c r="K94" s="266">
@@ -11204,7 +11208,7 @@
       </c>
       <c r="M94" s="269"/>
       <c r="N94" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O94" s="266"/>
       <c r="P94" s="271"/>
@@ -11227,11 +11231,11 @@
       </c>
       <c r="F95" s="255"/>
       <c r="G95" s="268" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H95" s="269"/>
       <c r="I95" s="265" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J95" s="270"/>
       <c r="K95" s="266">
@@ -11242,7 +11246,7 @@
       </c>
       <c r="M95" s="269"/>
       <c r="N95" s="269" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O95" s="266"/>
       <c r="P95" s="271"/>
@@ -11264,10 +11268,10 @@
         <v>42616</v>
       </c>
       <c r="F96" s="217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G96" s="261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H96" s="91" t="s">
         <v>49</v>
@@ -11298,10 +11302,10 @@
         <v>42616</v>
       </c>
       <c r="F97" s="217" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G97" s="261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H97" s="91"/>
       <c r="I97" s="87"/>
@@ -11330,10 +11334,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="217" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G98" s="261" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H98" s="91"/>
       <c r="I98" s="87"/>
@@ -11362,10 +11366,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="217" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G99" s="261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H99" s="91"/>
       <c r="I99" s="87"/>
@@ -11394,14 +11398,14 @@
         <v>42616</v>
       </c>
       <c r="F100" s="247" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G100" s="198" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H100" s="91"/>
       <c r="I100" s="259" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J100" s="92"/>
       <c r="K100" s="92"/>
@@ -11410,7 +11414,7 @@
       </c>
       <c r="M100" s="199"/>
       <c r="N100" s="199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O100" s="157"/>
       <c r="P100" s="200"/>
@@ -11433,11 +11437,11 @@
       </c>
       <c r="F101" s="267"/>
       <c r="G101" s="283" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H101" s="269"/>
       <c r="I101" s="265" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J101" s="270"/>
       <c r="K101" s="266">
@@ -11467,7 +11471,7 @@
       </c>
       <c r="F102" s="255"/>
       <c r="G102" s="268" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H102" s="269"/>
       <c r="I102" s="265" t="s">
@@ -11543,7 +11547,7 @@
       </c>
       <c r="F104" s="255"/>
       <c r="G104" s="268" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H104" s="269"/>
       <c r="I104" s="265" t="s">
@@ -11581,7 +11585,7 @@
       </c>
       <c r="F105" s="255"/>
       <c r="G105" s="268" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H105" s="269" t="s">
         <v>49</v>
@@ -11627,7 +11631,7 @@
       </c>
       <c r="H106" s="210"/>
       <c r="I106" s="206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J106" s="151"/>
       <c r="K106" s="207">
@@ -11661,7 +11665,7 @@
       </c>
       <c r="F107" s="255"/>
       <c r="G107" s="268" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H107" s="269" t="s">
         <v>49</v>
@@ -11678,7 +11682,7 @@
       </c>
       <c r="M107" s="269"/>
       <c r="N107" s="269" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O107" s="266">
         <v>42616</v>
@@ -11702,16 +11706,16 @@
         <v>42616</v>
       </c>
       <c r="F108" s="247" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G108" s="261" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H108" s="91" t="s">
         <v>49</v>
       </c>
       <c r="I108" s="275" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J108" s="92"/>
       <c r="K108" s="92"/>
@@ -11720,7 +11724,7 @@
       </c>
       <c r="M108" s="199"/>
       <c r="N108" s="199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O108" s="157">
         <v>42616</v>
@@ -11745,13 +11749,13 @@
       </c>
       <c r="F109" s="267"/>
       <c r="G109" s="268" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H109" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I109" s="265" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J109" s="270"/>
       <c r="K109" s="266">
@@ -11782,10 +11786,10 @@
         <v>42616</v>
       </c>
       <c r="F110" s="278" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G110" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H110" s="143" t="s">
         <v>49</v>
@@ -11817,13 +11821,13 @@
       </c>
       <c r="F111" s="287"/>
       <c r="G111" s="288" t="s">
+        <v>344</v>
+      </c>
+      <c r="H111" s="289" t="s">
         <v>345</v>
       </c>
-      <c r="H111" s="289" t="s">
-        <v>346</v>
-      </c>
       <c r="I111" s="290" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J111" s="291"/>
       <c r="K111" s="292">
@@ -11834,7 +11838,7 @@
       </c>
       <c r="M111" s="293"/>
       <c r="N111" s="293" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O111" s="292"/>
       <c r="P111" s="294"/>
@@ -11925,11 +11929,11 @@
       </c>
       <c r="F114" s="255"/>
       <c r="G114" s="268" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H114" s="269"/>
       <c r="I114" s="290" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J114" s="291"/>
       <c r="K114" s="292">
@@ -11963,11 +11967,11 @@
       </c>
       <c r="F115" s="255"/>
       <c r="G115" s="283" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H115" s="269"/>
       <c r="I115" s="290" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J115" s="291"/>
       <c r="K115" s="292">
@@ -12001,7 +12005,7 @@
       </c>
       <c r="F116" s="217"/>
       <c r="G116" s="147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H116" s="148"/>
       <c r="I116" s="153"/>
@@ -12031,11 +12035,11 @@
       </c>
       <c r="F117" s="267"/>
       <c r="G117" s="268" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H117" s="269"/>
       <c r="I117" s="295" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J117" s="270"/>
       <c r="K117" s="266">
@@ -12065,7 +12069,7 @@
       </c>
       <c r="F118" s="255"/>
       <c r="G118" s="268" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H118" s="269"/>
       <c r="I118" s="295" t="s">
@@ -12080,7 +12084,7 @@
       </c>
       <c r="M118" s="269"/>
       <c r="N118" s="269" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O118" s="266">
         <v>42630</v>
@@ -12105,7 +12109,7 @@
       </c>
       <c r="F119" s="255"/>
       <c r="G119" s="268" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H119" s="269"/>
       <c r="I119" s="295" t="s">
@@ -12120,7 +12124,7 @@
       </c>
       <c r="M119" s="269"/>
       <c r="N119" s="269" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O119" s="266">
         <v>42630</v>
@@ -12145,7 +12149,7 @@
       </c>
       <c r="F120" s="255"/>
       <c r="G120" s="268" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H120" s="269"/>
       <c r="I120" s="295" t="s">
@@ -12183,11 +12187,11 @@
       </c>
       <c r="F121" s="255"/>
       <c r="G121" s="268" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H121" s="269"/>
       <c r="I121" s="295" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J121" s="270"/>
       <c r="K121" s="266">
@@ -12221,7 +12225,7 @@
       </c>
       <c r="F122" s="255"/>
       <c r="G122" s="283" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H122" s="269"/>
       <c r="I122" s="295" t="s">
@@ -12232,11 +12236,11 @@
         <v>42632</v>
       </c>
       <c r="L122" s="265" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M122" s="269"/>
       <c r="N122" s="269" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O122" s="266">
         <v>42634</v>
@@ -12260,14 +12264,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G123" s="268" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H123" s="269"/>
       <c r="I123" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J123" s="270"/>
       <c r="K123" s="266"/>
@@ -12276,7 +12280,7 @@
       </c>
       <c r="M123" s="269"/>
       <c r="N123" s="269" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O123" s="266"/>
       <c r="P123" s="271"/>
@@ -12299,11 +12303,11 @@
       </c>
       <c r="F124" s="255"/>
       <c r="G124" s="268" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H124" s="269"/>
       <c r="I124" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J124" s="270"/>
       <c r="K124" s="266">
@@ -12337,11 +12341,11 @@
       </c>
       <c r="F125" s="255"/>
       <c r="G125" s="268" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H125" s="269"/>
       <c r="I125" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J125" s="270"/>
       <c r="K125" s="266">
@@ -12375,13 +12379,13 @@
       </c>
       <c r="F126" s="255"/>
       <c r="G126" s="268" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H126" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I126" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J126" s="270"/>
       <c r="K126" s="266">
@@ -12392,7 +12396,7 @@
       </c>
       <c r="M126" s="269"/>
       <c r="N126" s="269" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O126" s="266"/>
       <c r="P126" s="271"/>
@@ -12415,13 +12419,13 @@
       </c>
       <c r="F127" s="255"/>
       <c r="G127" s="268" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H127" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I127" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J127" s="270"/>
       <c r="K127" s="266">
@@ -12455,13 +12459,13 @@
       </c>
       <c r="F128" s="255"/>
       <c r="G128" s="268" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H128" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I128" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J128" s="270"/>
       <c r="K128" s="266">
@@ -12472,7 +12476,7 @@
       </c>
       <c r="M128" s="269"/>
       <c r="N128" s="269" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O128" s="266">
         <v>42625</v>
@@ -12497,13 +12501,13 @@
       </c>
       <c r="F129" s="255"/>
       <c r="G129" s="268" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H129" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I129" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J129" s="270"/>
       <c r="K129" s="266">
@@ -12514,7 +12518,7 @@
       </c>
       <c r="M129" s="269"/>
       <c r="N129" s="269" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O129" s="266">
         <v>42625</v>
@@ -12539,13 +12543,13 @@
       </c>
       <c r="F130" s="255"/>
       <c r="G130" s="268" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H130" s="269" t="s">
         <v>49</v>
       </c>
       <c r="I130" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J130" s="270"/>
       <c r="K130" s="266">
@@ -12556,7 +12560,7 @@
       </c>
       <c r="M130" s="269"/>
       <c r="N130" s="269" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O130" s="266">
         <v>42625</v>
@@ -12580,16 +12584,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="278" t="s">
+        <v>362</v>
+      </c>
+      <c r="G131" s="261" t="s">
+        <v>364</v>
+      </c>
+      <c r="H131" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="I131" s="259" t="s">
         <v>363</v>
-      </c>
-      <c r="G131" s="261" t="s">
-        <v>365</v>
-      </c>
-      <c r="H131" s="199" t="s">
-        <v>147</v>
-      </c>
-      <c r="I131" s="259" t="s">
-        <v>364</v>
       </c>
       <c r="J131" s="160"/>
       <c r="K131" s="160"/>
@@ -12598,7 +12602,7 @@
       </c>
       <c r="M131" s="199"/>
       <c r="N131" s="199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O131" s="157">
         <v>42625</v>
@@ -12623,10 +12627,10 @@
       </c>
       <c r="F132" s="204"/>
       <c r="G132" s="198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H132" s="199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I132" s="197"/>
       <c r="J132" s="160"/>
@@ -12657,11 +12661,11 @@
       </c>
       <c r="F133" s="255"/>
       <c r="G133" s="268" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H133" s="269"/>
       <c r="I133" s="265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J133" s="270"/>
       <c r="K133" s="266">
@@ -12672,7 +12676,7 @@
       </c>
       <c r="M133" s="269"/>
       <c r="N133" s="269" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O133" s="266">
         <v>42625</v>
@@ -12697,7 +12701,7 @@
       </c>
       <c r="F134" s="204"/>
       <c r="G134" s="218" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H134" s="199"/>
       <c r="I134" s="197"/>
@@ -12729,7 +12733,7 @@
       </c>
       <c r="F135" s="204"/>
       <c r="G135" s="218" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H135" s="199"/>
       <c r="I135" s="197"/>
@@ -12751,7 +12755,7 @@
         <v>19</v>
       </c>
       <c r="C136" s="197" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D136" s="203">
         <v>42625</v>
@@ -12761,10 +12765,10 @@
       </c>
       <c r="F136" s="204"/>
       <c r="G136" s="152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H136" s="199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I136" s="197"/>
       <c r="J136" s="160"/>
@@ -12795,11 +12799,11 @@
       </c>
       <c r="F137" s="255"/>
       <c r="G137" s="268" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H137" s="269"/>
       <c r="I137" s="265" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J137" s="270"/>
       <c r="K137" s="266">
@@ -12833,7 +12837,7 @@
       </c>
       <c r="F138" s="204"/>
       <c r="G138" s="261" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H138" s="262" t="s">
         <v>49</v>
@@ -12844,7 +12848,7 @@
       <c r="L138" s="216"/>
       <c r="M138" s="199"/>
       <c r="N138" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O138" s="157">
         <v>42625</v>
@@ -12868,14 +12872,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="255" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G139" s="268" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H139" s="269"/>
       <c r="I139" s="265" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J139" s="270"/>
       <c r="K139" s="266">
@@ -12886,7 +12890,7 @@
       </c>
       <c r="M139" s="269"/>
       <c r="N139" s="269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O139" s="266">
         <v>42630</v>
@@ -12911,7 +12915,7 @@
       </c>
       <c r="F140" s="204"/>
       <c r="G140" s="276" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H140" s="199"/>
       <c r="I140" s="197"/>
@@ -12920,7 +12924,7 @@
       <c r="L140" s="216"/>
       <c r="M140" s="199"/>
       <c r="N140" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O140" s="157">
         <v>42625</v>
@@ -12944,10 +12948,10 @@
         <v>42630</v>
       </c>
       <c r="F141" s="274" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G141" s="276" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H141" s="262" t="s">
         <v>49</v>
@@ -12958,7 +12962,7 @@
       <c r="L141" s="216"/>
       <c r="M141" s="199"/>
       <c r="N141" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O141" s="157">
         <v>42625</v>
@@ -12970,7 +12974,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C142" s="216" t="s">
         <v>16</v>
@@ -12983,7 +12987,7 @@
       </c>
       <c r="F142" s="224"/>
       <c r="G142" s="225" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H142" s="214"/>
       <c r="I142" s="214"/>
@@ -12996,7 +13000,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="265" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C143" s="265" t="s">
         <v>16</v>
@@ -13009,10 +13013,10 @@
       </c>
       <c r="F143" s="297"/>
       <c r="G143" s="298" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I143" s="272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K143" s="299">
         <v>42634</v>
@@ -13037,10 +13041,10 @@
       </c>
       <c r="F144" s="297"/>
       <c r="G144" s="300" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I144" s="272" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K144" s="299">
         <v>42634</v>
@@ -13065,10 +13069,10 @@
       </c>
       <c r="F145" s="297"/>
       <c r="G145" s="300" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I145" s="272" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K145" s="299">
         <v>42634</v>
@@ -13092,10 +13096,10 @@
         <v>42633</v>
       </c>
       <c r="F146" s="226" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G146" s="227" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H146" s="10"/>
       <c r="P146" s="264"/>
@@ -13117,10 +13121,10 @@
         <v>42633</v>
       </c>
       <c r="F147" s="226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G147" s="227" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H147" s="10"/>
       <c r="P147" s="264"/>
@@ -13142,10 +13146,10 @@
         <v>42633</v>
       </c>
       <c r="F148" s="226" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G148" s="227" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H148" s="10"/>
       <c r="P148" s="264"/>
@@ -13168,7 +13172,7 @@
       </c>
       <c r="F149" s="226"/>
       <c r="G149" s="228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H149" s="10"/>
       <c r="P149" s="264"/>
@@ -13191,7 +13195,7 @@
       </c>
       <c r="F150" s="226"/>
       <c r="G150" s="228" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H150" s="10"/>
       <c r="P150" s="264"/>
@@ -13213,21 +13217,25 @@
         <v>42636</v>
       </c>
       <c r="F151" s="251" t="s">
+        <v>254</v>
+      </c>
+      <c r="G151" s="244" t="s">
         <v>255</v>
       </c>
-      <c r="G151" s="244" t="s">
-        <v>256</v>
-      </c>
       <c r="H151" s="245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I151" s="242"/>
       <c r="J151" s="246"/>
       <c r="K151" s="246"/>
-      <c r="L151" s="242"/>
+      <c r="L151" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M151" s="245"/>
       <c r="N151" s="245"/>
-      <c r="O151" s="243"/>
+      <c r="O151" s="243">
+        <v>42637</v>
+      </c>
       <c r="P151" s="264"/>
     </row>
     <row r="152" spans="1:16" s="239" customFormat="1" ht="27">
@@ -13247,13 +13255,13 @@
         <v>42636</v>
       </c>
       <c r="F152" s="251" t="s">
+        <v>252</v>
+      </c>
+      <c r="G152" s="244" t="s">
+        <v>256</v>
+      </c>
+      <c r="H152" s="245" t="s">
         <v>253</v>
-      </c>
-      <c r="G152" s="244" t="s">
-        <v>257</v>
-      </c>
-      <c r="H152" s="245" t="s">
-        <v>254</v>
       </c>
       <c r="I152" s="242"/>
       <c r="J152" s="246"/>
@@ -13281,13 +13289,13 @@
         <v>42636</v>
       </c>
       <c r="F153" s="251" t="s">
+        <v>252</v>
+      </c>
+      <c r="G153" s="244" t="s">
+        <v>257</v>
+      </c>
+      <c r="H153" s="245" t="s">
         <v>253</v>
-      </c>
-      <c r="G153" s="244" t="s">
-        <v>258</v>
-      </c>
-      <c r="H153" s="245" t="s">
-        <v>254</v>
       </c>
       <c r="I153" s="242"/>
       <c r="J153" s="246"/>
@@ -13315,10 +13323,10 @@
         <v>42636</v>
       </c>
       <c r="F154" s="278" t="s">
+        <v>315</v>
+      </c>
+      <c r="G154" s="276" t="s">
         <v>316</v>
-      </c>
-      <c r="G154" s="276" t="s">
-        <v>317</v>
       </c>
       <c r="H154" s="262" t="s">
         <v>49</v>
@@ -13349,10 +13357,10 @@
         <v>42636</v>
       </c>
       <c r="F155" s="278" t="s">
+        <v>320</v>
+      </c>
+      <c r="G155" s="284" t="s">
         <v>321</v>
-      </c>
-      <c r="G155" s="284" t="s">
-        <v>322</v>
       </c>
       <c r="H155" s="262"/>
       <c r="I155" s="259"/>
@@ -13381,13 +13389,13 @@
         <v>42636</v>
       </c>
       <c r="F156" s="251" t="s">
+        <v>264</v>
+      </c>
+      <c r="G156" s="250" t="s">
         <v>265</v>
       </c>
-      <c r="G156" s="250" t="s">
-        <v>266</v>
-      </c>
       <c r="H156" s="245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I156" s="242"/>
       <c r="J156" s="246"/>
@@ -13419,10 +13427,10 @@
         <v>42636</v>
       </c>
       <c r="F157" s="251" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G157" s="244" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H157" s="245"/>
       <c r="I157" s="242"/>
@@ -13451,13 +13459,13 @@
         <v>42636</v>
       </c>
       <c r="F158" s="251" t="s">
+        <v>267</v>
+      </c>
+      <c r="G158" s="244" t="s">
         <v>268</v>
       </c>
-      <c r="G158" s="244" t="s">
-        <v>269</v>
-      </c>
       <c r="H158" s="245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I158" s="242"/>
       <c r="J158" s="246"/>
@@ -13485,13 +13493,13 @@
         <v>42636</v>
       </c>
       <c r="F159" s="251" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G159" s="244" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H159" s="245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I159" s="242"/>
       <c r="J159" s="246"/>
@@ -13519,13 +13527,13 @@
         <v>42636</v>
       </c>
       <c r="F160" s="251" t="s">
+        <v>273</v>
+      </c>
+      <c r="G160" s="250" t="s">
         <v>274</v>
       </c>
-      <c r="G160" s="250" t="s">
-        <v>275</v>
-      </c>
       <c r="H160" s="245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I160" s="242"/>
       <c r="J160" s="246"/>
@@ -13553,10 +13561,10 @@
         <v>42636</v>
       </c>
       <c r="F161" s="251" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G161" s="244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H161" s="245"/>
       <c r="I161" s="242"/>
@@ -13585,10 +13593,10 @@
         <v>42636</v>
       </c>
       <c r="F162" s="278" t="s">
+        <v>365</v>
+      </c>
+      <c r="G162" s="277" t="s">
         <v>366</v>
-      </c>
-      <c r="G162" s="277" t="s">
-        <v>367</v>
       </c>
       <c r="H162" s="262" t="s">
         <v>49</v>
@@ -13596,10 +13604,14 @@
       <c r="I162" s="259"/>
       <c r="J162" s="263"/>
       <c r="K162" s="263"/>
-      <c r="L162" s="259"/>
+      <c r="L162" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M162" s="262"/>
       <c r="N162" s="262"/>
-      <c r="O162" s="260"/>
+      <c r="O162" s="260">
+        <v>42637</v>
+      </c>
       <c r="P162" s="264"/>
     </row>
     <row r="163" spans="1:16" s="258" customFormat="1" ht="27">
@@ -13619,10 +13631,10 @@
         <v>42636</v>
       </c>
       <c r="F163" s="278" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G163" s="284" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H163" s="262" t="s">
         <v>49</v>
@@ -13653,10 +13665,10 @@
         <v>42636</v>
       </c>
       <c r="F164" s="278" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G164" s="277" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H164" s="262" t="s">
         <v>49</v>
@@ -13687,19 +13699,23 @@
         <v>42636</v>
       </c>
       <c r="F165" s="278" t="s">
+        <v>331</v>
+      </c>
+      <c r="G165" s="284" t="s">
         <v>332</v>
-      </c>
-      <c r="G165" s="284" t="s">
-        <v>333</v>
       </c>
       <c r="H165" s="262"/>
       <c r="I165" s="259"/>
       <c r="J165" s="263"/>
       <c r="K165" s="263"/>
-      <c r="L165" s="259"/>
+      <c r="L165" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M165" s="262"/>
       <c r="N165" s="262"/>
-      <c r="O165" s="260"/>
+      <c r="O165" s="260">
+        <v>42637</v>
+      </c>
       <c r="P165" s="264"/>
     </row>
     <row r="166" spans="1:16" s="258" customFormat="1">
@@ -13719,10 +13735,10 @@
         <v>42636</v>
       </c>
       <c r="F166" s="278" t="s">
+        <v>335</v>
+      </c>
+      <c r="G166" s="284" t="s">
         <v>336</v>
-      </c>
-      <c r="G166" s="284" t="s">
-        <v>337</v>
       </c>
       <c r="H166" s="262" t="s">
         <v>49</v>
@@ -13753,10 +13769,10 @@
         <v>42636</v>
       </c>
       <c r="F167" s="278" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G167" s="284" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H167" s="262" t="s">
         <v>49</v>
@@ -13764,10 +13780,14 @@
       <c r="I167" s="259"/>
       <c r="J167" s="263"/>
       <c r="K167" s="263"/>
-      <c r="L167" s="259"/>
+      <c r="L167" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M167" s="262"/>
       <c r="N167" s="262"/>
-      <c r="O167" s="260"/>
+      <c r="O167" s="260">
+        <v>42637</v>
+      </c>
       <c r="P167" s="264"/>
     </row>
     <row r="168" spans="1:16" s="258" customFormat="1" ht="40.5">
@@ -13787,10 +13807,10 @@
         <v>42636</v>
       </c>
       <c r="F168" s="278" t="s">
+        <v>352</v>
+      </c>
+      <c r="G168" s="277" t="s">
         <v>353</v>
-      </c>
-      <c r="G168" s="277" t="s">
-        <v>354</v>
       </c>
       <c r="H168" s="262"/>
       <c r="I168" s="259"/>
@@ -13819,10 +13839,10 @@
         <v>42636</v>
       </c>
       <c r="F169" s="278" t="s">
+        <v>354</v>
+      </c>
+      <c r="G169" s="284" t="s">
         <v>355</v>
-      </c>
-      <c r="G169" s="284" t="s">
-        <v>356</v>
       </c>
       <c r="H169" s="262"/>
       <c r="I169" s="259"/>
@@ -13851,10 +13871,10 @@
         <v>42636</v>
       </c>
       <c r="F170" s="278" t="s">
+        <v>356</v>
+      </c>
+      <c r="G170" s="277" t="s">
         <v>357</v>
-      </c>
-      <c r="G170" s="277" t="s">
-        <v>358</v>
       </c>
       <c r="H170" s="262" t="s">
         <v>49</v>
@@ -13873,7 +13893,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C171" s="259" t="s">
         <v>16</v>
@@ -13885,10 +13905,10 @@
         <v>42636</v>
       </c>
       <c r="F171" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="G171" s="221" t="s">
         <v>434</v>
-      </c>
-      <c r="G171" s="221" t="s">
-        <v>435</v>
       </c>
       <c r="H171" s="262"/>
     </row>
@@ -13897,7 +13917,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172" s="259" t="s">
         <v>16</v>
@@ -13909,13 +13929,13 @@
         <v>42636</v>
       </c>
       <c r="F172" s="226" t="s">
+        <v>435</v>
+      </c>
+      <c r="G172" s="221" t="s">
         <v>436</v>
       </c>
-      <c r="G172" s="221" t="s">
+      <c r="H172" s="262" t="s">
         <v>437</v>
-      </c>
-      <c r="H172" s="262" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="94.5">
@@ -13923,7 +13943,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" s="259" t="s">
         <v>16</v>
@@ -13935,13 +13955,13 @@
         <v>42636</v>
       </c>
       <c r="F173" s="302" t="s">
+        <v>438</v>
+      </c>
+      <c r="G173" s="303" t="s">
         <v>439</v>
       </c>
-      <c r="G173" s="303" t="s">
-        <v>440</v>
-      </c>
       <c r="H173" s="262" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="27">
@@ -13949,7 +13969,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="259" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" s="259" t="s">
         <v>16</v>
@@ -13961,10 +13981,10 @@
         <v>42636</v>
       </c>
       <c r="F174" s="278" t="s">
+        <v>440</v>
+      </c>
+      <c r="G174" s="221" t="s">
         <v>441</v>
-      </c>
-      <c r="G174" s="221" t="s">
-        <v>442</v>
       </c>
       <c r="H174" s="262"/>
     </row>
@@ -13972,7 +13992,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -14299,7 +14319,7 @@
         <v>42627</v>
       </c>
       <c r="F10" s="152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="199"/>
       <c r="H10" s="197"/>
@@ -14308,7 +14328,7 @@
       <c r="K10" s="197"/>
       <c r="L10" s="199"/>
       <c r="M10" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N10" s="157">
         <v>42625</v>
@@ -14356,7 +14376,7 @@
       <c r="D13" s="65"/>
       <c r="E13" s="66"/>
       <c r="F13" s="218" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="22"/>
@@ -14375,7 +14395,7 @@
       <c r="D14" s="56"/>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="55"/>
@@ -14394,7 +14414,7 @@
       <c r="D15" s="52"/>
       <c r="E15" s="24"/>
       <c r="F15" s="218" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="22"/>
@@ -14413,7 +14433,7 @@
       <c r="D16" s="52"/>
       <c r="E16" s="24"/>
       <c r="F16" s="218" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="22"/>
@@ -15340,7 +15360,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>4</v>
@@ -15425,7 +15445,7 @@
       </c>
       <c r="F4" s="217"/>
       <c r="G4" s="198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="159"/>
       <c r="I4" s="163"/>
@@ -15442,10 +15462,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="216" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="216" t="s">
         <v>199</v>
-      </c>
-      <c r="C5" s="216" t="s">
-        <v>200</v>
       </c>
       <c r="D5" s="157">
         <v>42632</v>
@@ -15454,10 +15474,10 @@
         <v>42634</v>
       </c>
       <c r="F5" s="217" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="218" t="s">
         <v>201</v>
-      </c>
-      <c r="G5" s="218" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="216"/>
@@ -15474,10 +15494,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="216" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="216" t="s">
         <v>203</v>
-      </c>
-      <c r="C6" s="216" t="s">
-        <v>204</v>
       </c>
       <c r="D6" s="157">
         <v>42632</v>
@@ -15486,10 +15506,10 @@
         <v>42634</v>
       </c>
       <c r="F6" s="220" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="221" t="s">
         <v>205</v>
-      </c>
-      <c r="G6" s="221" t="s">
-        <v>206</v>
       </c>
       <c r="H6" s="199"/>
       <c r="I6" s="216"/>
@@ -16387,7 +16407,7 @@
         <v>42625</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16395,7 +16415,7 @@
         <v>42632</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -16864,7 +16884,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:2">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="444">
   <si>
     <t>编号</t>
   </si>
@@ -5258,15 +5258,16 @@
     <t>空行</t>
   </si>
   <si>
+    <t>添加音量设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新每次启动都判断创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
 逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
-  </si>
-  <si>
-    <t>添加音量设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新每次启动都判断创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6186,7 +6187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7100,6 +7101,9 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -7629,8 +7633,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10538,7 +10542,7 @@
       </c>
       <c r="M76" s="199"/>
       <c r="N76" s="262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O76" s="203">
         <v>42639</v>
@@ -10728,7 +10732,7 @@
       </c>
       <c r="M81" s="199"/>
       <c r="N81" s="262" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O81" s="157">
         <v>42639</v>
@@ -12993,6 +12997,12 @@
       <c r="I142" s="214"/>
       <c r="J142" s="214"/>
       <c r="K142" s="214"/>
+      <c r="L142" s="259" t="s">
+        <v>60</v>
+      </c>
+      <c r="O142" s="304">
+        <v>42639</v>
+      </c>
       <c r="P142" s="264"/>
     </row>
     <row r="143" spans="1:16" s="272" customFormat="1" hidden="1">
@@ -13984,9 +13994,15 @@
         <v>440</v>
       </c>
       <c r="G174" s="221" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H174" s="262"/>
+      <c r="L174" s="259" t="s">
+        <v>60</v>
+      </c>
+      <c r="O174" s="304">
+        <v>42639</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P174">
@@ -14009,7 +14025,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L141 L151:L170 L14:L50 L10 L89:L115 L52:L87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L142 L151:L170 L14:L50 L10 L89:L115 L52:L87 L174">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14022,7 +14038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="445">
   <si>
     <t>编号</t>
   </si>
@@ -5268,6 +5268,10 @@
   <si>
     <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
 逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等后鼎提供公共对话框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7633,8 +7637,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="N177" sqref="N177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7741,7 +7745,9 @@
       <c r="K3" s="231"/>
       <c r="L3" s="230"/>
       <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
+      <c r="N3" s="234" t="s">
+        <v>444</v>
+      </c>
       <c r="O3" s="231">
         <v>42616</v>
       </c>
@@ -10532,9 +10538,7 @@
         <v>372</v>
       </c>
       <c r="H76" s="91"/>
-      <c r="I76" s="259" t="s">
-        <v>341</v>
-      </c>
+      <c r="I76" s="259"/>
       <c r="J76" s="67"/>
       <c r="K76" s="65"/>
       <c r="L76" s="216" t="s">
@@ -10722,9 +10726,7 @@
         <v>309</v>
       </c>
       <c r="H81" s="91"/>
-      <c r="I81" s="197" t="s">
-        <v>67</v>
-      </c>
+      <c r="I81" s="197"/>
       <c r="J81" s="92"/>
       <c r="K81" s="92"/>
       <c r="L81" s="216" t="s">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="447">
   <si>
     <t>编号</t>
   </si>
@@ -5173,105 +5173,114 @@
     <t>逐句、逐字</t>
   </si>
   <si>
+    <t>删除、清空</t>
+  </si>
+  <si>
+    <t>进入“我的收藏=》删除当前”,当“确认删除   是 否”对话框时按【返回】键退出后，没有声音反馈。=》应该播报反显项。
+涉及【我的收藏】【最近使用文件】【书签管理】三处的删除、清空操作，均是如此。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>我的收藏
+最近使用文件</t>
+  </si>
+  <si>
+    <r>
+      <t>【操作步骤】
+1.进入文件列表，分别添加3个文件到【我的收藏】。
+2.进入我的收藏,移动光标反选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后一个文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，按菜单键进入功能菜单，执行“删除当前”操作，待提示“确认删除  是 否”语音播放完成，按【确认】删除。
+删除成功后，仅有语音播报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除成功，没有弹出提示框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后屏幕闪黑屏后即退到上级菜单，同时tts声音丢失。
+【测试结果】删除我的收藏文件导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tts语音消失。最近使用文件，同此。</t>
+    </r>
+  </si>
+  <si>
+    <t>空行</t>
+  </si>
+  <si>
+    <t>添加音量设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新每次启动都判断创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
+逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等后鼎提供公共对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【设置字体：中字号】
 1.文本文档--目录浏览--内存，"文本样例：文件夹=》中英数叶芝.txt文件，自动播放模式第一页第一行，按9键下一字，仅语音提示“换行”，但是无反显光标。
 【测试结果】第一行按9键下一字切换模式光标没有显示。（按6键下一句也有同样现象）</t>
-  </si>
-  <si>
-    <t>删除、清空</t>
-  </si>
-  <si>
-    <t>进入“我的收藏=》删除当前”,当“确认删除   是 否”对话框时按【返回】键退出后，没有声音反馈。=》应该播报反显项。
-涉及【我的收藏】【最近使用文件】【书签管理】三处的删除、清空操作，均是如此。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>我的收藏
-最近使用文件</t>
-  </si>
-  <si>
-    <r>
-      <t>【操作步骤】
-1.进入文件列表，分别添加3个文件到【我的收藏】。
-2.进入我的收藏,移动光标反选</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最后一个文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，按菜单键进入功能菜单，执行“删除当前”操作，待提示“确认删除  是 否”语音播放完成，按【确认】删除。
-删除成功后，仅有语音播报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除成功，没有弹出提示框</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。然后屏幕闪黑屏后即退到上级菜单，同时tts声音丢失。
-【测试结果】删除我的收藏文件导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tts语音消失。最近使用文件，同此。</t>
-    </r>
-  </si>
-  <si>
-    <t>空行</t>
-  </si>
-  <si>
-    <t>添加音量设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新每次启动都判断创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
-逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等后鼎提供公共对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚好这行字占了满行，没有空间再显示换行符。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7637,8 +7646,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="L176" sqref="L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7746,7 +7755,7 @@
       <c r="L3" s="230"/>
       <c r="M3" s="234"/>
       <c r="N3" s="234" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O3" s="231">
         <v>42616</v>
@@ -10546,7 +10555,7 @@
       </c>
       <c r="M76" s="199"/>
       <c r="N76" s="262" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O76" s="203">
         <v>42639</v>
@@ -10734,7 +10743,7 @@
       </c>
       <c r="M81" s="199"/>
       <c r="N81" s="262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O81" s="157">
         <v>42639</v>
@@ -13920,9 +13929,18 @@
         <v>433</v>
       </c>
       <c r="G171" s="221" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H171" s="262"/>
+      <c r="L171" s="258" t="s">
+        <v>445</v>
+      </c>
+      <c r="N171" s="258" t="s">
+        <v>446</v>
+      </c>
+      <c r="O171" s="304">
+        <v>42640</v>
+      </c>
     </row>
     <row r="172" spans="1:16" ht="40.5">
       <c r="A172" s="282">
@@ -13941,13 +13959,13 @@
         <v>42636</v>
       </c>
       <c r="F172" s="226" t="s">
+        <v>434</v>
+      </c>
+      <c r="G172" s="221" t="s">
         <v>435</v>
       </c>
-      <c r="G172" s="221" t="s">
+      <c r="H172" s="262" t="s">
         <v>436</v>
-      </c>
-      <c r="H172" s="262" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="94.5">
@@ -13967,13 +13985,13 @@
         <v>42636</v>
       </c>
       <c r="F173" s="302" t="s">
+        <v>437</v>
+      </c>
+      <c r="G173" s="303" t="s">
         <v>438</v>
       </c>
-      <c r="G173" s="303" t="s">
-        <v>439</v>
-      </c>
       <c r="H173" s="262" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="27">
@@ -13993,10 +14011,10 @@
         <v>42636</v>
       </c>
       <c r="F174" s="278" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G174" s="221" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H174" s="262"/>
       <c r="L174" s="259" t="s">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="447">
   <si>
     <t>编号</t>
   </si>
@@ -7647,7 +7647,7 @@
   <dimension ref="A1:P174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="L176" sqref="L176"/>
+      <selection activeCell="Q171" sqref="Q171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13837,10 +13837,14 @@
       <c r="I168" s="259"/>
       <c r="J168" s="263"/>
       <c r="K168" s="263"/>
-      <c r="L168" s="259"/>
+      <c r="L168" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M168" s="262"/>
       <c r="N168" s="262"/>
-      <c r="O168" s="260"/>
+      <c r="O168" s="260">
+        <v>42640</v>
+      </c>
       <c r="P168" s="264"/>
     </row>
     <row r="169" spans="1:16" s="258" customFormat="1" ht="40.5">
@@ -13903,10 +13907,14 @@
       <c r="I170" s="259"/>
       <c r="J170" s="263"/>
       <c r="K170" s="263"/>
-      <c r="L170" s="259"/>
+      <c r="L170" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M170" s="262"/>
       <c r="N170" s="262"/>
-      <c r="O170" s="260"/>
+      <c r="O170" s="260">
+        <v>42640</v>
+      </c>
       <c r="P170" s="264"/>
     </row>
     <row r="171" spans="1:16" ht="54">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="449">
   <si>
     <t>编号</t>
   </si>
@@ -5281,6 +5281,14 @@
   </si>
   <si>
     <t>刚好这行字占了满行，没有空间再显示换行符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改过跳转页码程序，不能复现了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7646,8 +7654,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="Q171" sqref="Q171"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7882,7 +7890,7 @@
       </c>
       <c r="P6" s="211"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="282">
         <v>5</v>
       </c>
@@ -8620,7 +8628,7 @@
       <c r="O26" s="207"/>
       <c r="P26" s="211"/>
     </row>
-    <row r="27" spans="1:16" ht="135">
+    <row r="27" spans="1:16" ht="135" hidden="1">
       <c r="A27" s="282">
         <v>25</v>
       </c>
@@ -9409,9 +9417,7 @@
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
-      <c r="L47" s="216" t="s">
-        <v>60</v>
-      </c>
+      <c r="L47" s="216"/>
       <c r="M47" s="199"/>
       <c r="N47" s="199"/>
       <c r="O47" s="157">
@@ -9519,9 +9525,7 @@
       </c>
       <c r="J50" s="205"/>
       <c r="K50" s="203"/>
-      <c r="L50" s="216" t="s">
-        <v>60</v>
-      </c>
+      <c r="L50" s="216"/>
       <c r="M50" s="199"/>
       <c r="N50" s="199"/>
       <c r="O50" s="203">
@@ -9565,7 +9569,7 @@
       <c r="O51" s="207"/>
       <c r="P51" s="211"/>
     </row>
-    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5">
+    <row r="52" spans="1:16" s="68" customFormat="1" ht="40.5" hidden="1">
       <c r="A52" s="282">
         <v>50</v>
       </c>
@@ -9637,7 +9641,7 @@
       <c r="O53" s="207"/>
       <c r="P53" s="211"/>
     </row>
-    <row r="54" spans="1:16" s="85" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="85" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="282">
         <v>52</v>
       </c>
@@ -9785,9 +9789,7 @@
       </c>
       <c r="J57" s="92"/>
       <c r="K57" s="92"/>
-      <c r="L57" s="216" t="s">
-        <v>60</v>
-      </c>
+      <c r="L57" s="216"/>
       <c r="M57" s="199"/>
       <c r="N57" s="199"/>
       <c r="O57" s="157">
@@ -10524,7 +10526,7 @@
       </c>
       <c r="P75" s="211"/>
     </row>
-    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5">
+    <row r="76" spans="1:16" s="68" customFormat="1" ht="67.5" hidden="1">
       <c r="A76" s="282">
         <v>74</v>
       </c>
@@ -10712,7 +10714,7 @@
       <c r="O80" s="157"/>
       <c r="P80" s="200"/>
     </row>
-    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="282">
         <v>79</v>
       </c>
@@ -11734,9 +11736,7 @@
       </c>
       <c r="J108" s="92"/>
       <c r="K108" s="92"/>
-      <c r="L108" s="216" t="s">
-        <v>60</v>
-      </c>
+      <c r="L108" s="216"/>
       <c r="M108" s="199"/>
       <c r="N108" s="199" t="s">
         <v>218</v>
@@ -12612,9 +12612,7 @@
       </c>
       <c r="J131" s="160"/>
       <c r="K131" s="160"/>
-      <c r="L131" s="216" t="s">
-        <v>60</v>
-      </c>
+      <c r="L131" s="216"/>
       <c r="M131" s="199"/>
       <c r="N131" s="199" t="s">
         <v>224</v>
@@ -12984,7 +12982,7 @@
       </c>
       <c r="P141" s="200"/>
     </row>
-    <row r="142" spans="1:16" ht="81">
+    <row r="142" spans="1:16" ht="81" hidden="1">
       <c r="A142" s="238">
         <v>140</v>
       </c>
@@ -13221,7 +13219,7 @@
       <c r="H150" s="10"/>
       <c r="P150" s="264"/>
     </row>
-    <row r="151" spans="1:16" s="239" customFormat="1">
+    <row r="151" spans="1:16" s="239" customFormat="1" hidden="1">
       <c r="A151" s="282">
         <v>149</v>
       </c>
@@ -13393,7 +13391,7 @@
       <c r="O155" s="260"/>
       <c r="P155" s="264"/>
     </row>
-    <row r="156" spans="1:16" s="239" customFormat="1">
+    <row r="156" spans="1:16" s="239" customFormat="1" hidden="1">
       <c r="A156" s="282">
         <v>154</v>
       </c>
@@ -13597,7 +13595,7 @@
       <c r="O161" s="243"/>
       <c r="P161" s="264"/>
     </row>
-    <row r="162" spans="1:16" s="258" customFormat="1">
+    <row r="162" spans="1:16" s="258" customFormat="1" hidden="1">
       <c r="A162" s="282">
         <v>160</v>
       </c>
@@ -13703,7 +13701,7 @@
       <c r="O164" s="260"/>
       <c r="P164" s="264"/>
     </row>
-    <row r="165" spans="1:16" s="258" customFormat="1">
+    <row r="165" spans="1:16" s="258" customFormat="1" hidden="1">
       <c r="A165" s="282">
         <v>163</v>
       </c>
@@ -13773,7 +13771,7 @@
       <c r="O166" s="260"/>
       <c r="P166" s="264"/>
     </row>
-    <row r="167" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="282">
         <v>165</v>
       </c>
@@ -13811,7 +13809,7 @@
       </c>
       <c r="P167" s="264"/>
     </row>
-    <row r="168" spans="1:16" s="258" customFormat="1" ht="40.5">
+    <row r="168" spans="1:16" s="258" customFormat="1" ht="40.5" hidden="1">
       <c r="A168" s="282">
         <v>166</v>
       </c>
@@ -13841,13 +13839,15 @@
         <v>60</v>
       </c>
       <c r="M168" s="262"/>
-      <c r="N168" s="262"/>
+      <c r="N168" s="262" t="s">
+        <v>448</v>
+      </c>
       <c r="O168" s="260">
         <v>42640</v>
       </c>
       <c r="P168" s="264"/>
     </row>
-    <row r="169" spans="1:16" s="258" customFormat="1" ht="40.5">
+    <row r="169" spans="1:16" s="258" customFormat="1" ht="40.5" hidden="1">
       <c r="A169" s="282">
         <v>167</v>
       </c>
@@ -13873,13 +13873,19 @@
       <c r="I169" s="259"/>
       <c r="J169" s="263"/>
       <c r="K169" s="263"/>
-      <c r="L169" s="259"/>
+      <c r="L169" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M169" s="262"/>
-      <c r="N169" s="262"/>
-      <c r="O169" s="260"/>
+      <c r="N169" s="262" t="s">
+        <v>447</v>
+      </c>
+      <c r="O169" s="260">
+        <v>42640</v>
+      </c>
       <c r="P169" s="264"/>
     </row>
-    <row r="170" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="282">
         <v>168</v>
       </c>
@@ -13917,7 +13923,7 @@
       </c>
       <c r="P170" s="264"/>
     </row>
-    <row r="171" spans="1:16" ht="54">
+    <row r="171" spans="1:16" ht="54" hidden="1">
       <c r="A171" s="282">
         <v>169</v>
       </c>
@@ -14002,7 +14008,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="27">
+    <row r="174" spans="1:16" ht="27" hidden="1">
       <c r="A174" s="282">
         <v>172</v>
       </c>
@@ -14040,7 +14046,9 @@
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
   <si>
     <t>编号</t>
   </si>
@@ -7654,8 +7654,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="L174" sqref="L174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O160" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7732,7 +7732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="237" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="237" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="229">
         <v>1</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="O9" s="207"/>
       <c r="P9" s="211"/>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1" ht="40.5">
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="282">
         <v>8</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="O28" s="157"/>
       <c r="P28" s="200"/>
     </row>
-    <row r="29" spans="1:16" s="53" customFormat="1" ht="135">
+    <row r="29" spans="1:16" s="53" customFormat="1" ht="135" hidden="1">
       <c r="A29" s="282">
         <v>27</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="211"/>
     </row>
-    <row r="49" spans="1:16" s="53" customFormat="1" ht="81">
+    <row r="49" spans="1:16" s="53" customFormat="1" ht="81" hidden="1">
       <c r="A49" s="282">
         <v>47</v>
       </c>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="P79" s="211"/>
     </row>
-    <row r="80" spans="1:16" s="85" customFormat="1" ht="27">
+    <row r="80" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A80" s="282">
         <v>78</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="P81" s="200"/>
     </row>
-    <row r="82" spans="1:16" s="53" customFormat="1" ht="54">
+    <row r="82" spans="1:16" s="53" customFormat="1" ht="54" hidden="1">
       <c r="A82" s="282">
         <v>80</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="O87" s="266"/>
       <c r="P87" s="271"/>
     </row>
-    <row r="88" spans="1:16" ht="40.5">
+    <row r="88" spans="1:16" ht="40.5" hidden="1">
       <c r="A88" s="282">
         <v>86</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="O95" s="266"/>
       <c r="P95" s="271"/>
     </row>
-    <row r="96" spans="1:16" s="85" customFormat="1" ht="27">
+    <row r="96" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A96" s="282">
         <v>94</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="O96" s="157"/>
       <c r="P96" s="200"/>
     </row>
-    <row r="97" spans="1:16" s="85" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="282">
         <v>95</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="O97" s="157"/>
       <c r="P97" s="200"/>
     </row>
-    <row r="98" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="282">
         <v>96</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="O98" s="157"/>
       <c r="P98" s="200"/>
     </row>
-    <row r="99" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="282">
         <v>97</v>
       </c>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="P109" s="271"/>
     </row>
-    <row r="110" spans="1:16" s="85" customFormat="1" ht="40.5">
+    <row r="110" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
       <c r="A110" s="282">
         <v>108</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="O111" s="292"/>
       <c r="P111" s="294"/>
     </row>
-    <row r="112" spans="1:16" s="85" customFormat="1" ht="27">
+    <row r="112" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A112" s="282">
         <v>110</v>
       </c>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="P112" s="200"/>
     </row>
-    <row r="113" spans="1:16" s="85" customFormat="1" ht="27">
+    <row r="113" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
       <c r="A113" s="282">
         <v>111</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
       <c r="P115" s="271"/>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" ht="40.5">
+    <row r="116" spans="1:16" s="3" customFormat="1" ht="40.5" hidden="1">
       <c r="A116" s="282">
         <v>114</v>
       </c>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="P131" s="200"/>
     </row>
-    <row r="132" spans="1:16" s="139" customFormat="1">
+    <row r="132" spans="1:16" s="139" customFormat="1" hidden="1">
       <c r="A132" s="282">
         <v>130</v>
       </c>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="P133" s="271"/>
     </row>
-    <row r="134" spans="1:16" s="139" customFormat="1" ht="40.5">
+    <row r="134" spans="1:16" s="139" customFormat="1" ht="40.5" hidden="1">
       <c r="A134" s="282">
         <v>132</v>
       </c>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="P134" s="200"/>
     </row>
-    <row r="135" spans="1:16" s="139" customFormat="1" ht="27">
+    <row r="135" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
       <c r="A135" s="282">
         <v>133</v>
       </c>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="P135" s="200"/>
     </row>
-    <row r="136" spans="1:16" s="139" customFormat="1" ht="67.5">
+    <row r="136" spans="1:16" s="139" customFormat="1" ht="67.5" hidden="1">
       <c r="A136" s="282">
         <v>134</v>
       </c>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="P137" s="271"/>
     </row>
-    <row r="138" spans="1:16" s="139" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="139" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="282">
         <v>136</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="P139" s="271"/>
     </row>
-    <row r="140" spans="1:16" s="139" customFormat="1" ht="54">
+    <row r="140" spans="1:16" s="139" customFormat="1" ht="54" hidden="1">
       <c r="A140" s="282">
         <v>138</v>
       </c>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="P140" s="200"/>
     </row>
-    <row r="141" spans="1:16" s="139" customFormat="1" ht="54">
+    <row r="141" spans="1:16" s="139" customFormat="1" ht="54" hidden="1">
       <c r="A141" s="282">
         <v>139</v>
       </c>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="P145" s="271"/>
     </row>
-    <row r="146" spans="1:16" s="139" customFormat="1" ht="27">
+    <row r="146" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
       <c r="A146" s="282">
         <v>144</v>
       </c>
@@ -13123,7 +13123,7 @@
       <c r="H146" s="10"/>
       <c r="P146" s="264"/>
     </row>
-    <row r="147" spans="1:16" s="139" customFormat="1">
+    <row r="147" spans="1:16" s="139" customFormat="1" hidden="1">
       <c r="A147" s="282">
         <v>145</v>
       </c>
@@ -13148,7 +13148,7 @@
       <c r="H147" s="10"/>
       <c r="P147" s="264"/>
     </row>
-    <row r="148" spans="1:16" s="139" customFormat="1">
+    <row r="148" spans="1:16" s="139" customFormat="1" hidden="1">
       <c r="A148" s="282">
         <v>146</v>
       </c>
@@ -13173,7 +13173,7 @@
       <c r="H148" s="10"/>
       <c r="P148" s="264"/>
     </row>
-    <row r="149" spans="1:16" s="139" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="282">
         <v>147</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="H149" s="10"/>
       <c r="P149" s="264"/>
     </row>
-    <row r="150" spans="1:16" s="139" customFormat="1" ht="27">
+    <row r="150" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
       <c r="A150" s="282">
         <v>148</v>
       </c>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="P151" s="264"/>
     </row>
-    <row r="152" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="152" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A152" s="282">
         <v>150</v>
       </c>
@@ -13291,7 +13291,7 @@
       <c r="O152" s="243"/>
       <c r="P152" s="264"/>
     </row>
-    <row r="153" spans="1:16" s="239" customFormat="1" ht="40.5">
+    <row r="153" spans="1:16" s="239" customFormat="1" ht="40.5" hidden="1">
       <c r="A153" s="282">
         <v>151</v>
       </c>
@@ -13325,7 +13325,7 @@
       <c r="O153" s="243"/>
       <c r="P153" s="264"/>
     </row>
-    <row r="154" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="282">
         <v>152</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="O154" s="260"/>
       <c r="P154" s="264"/>
     </row>
-    <row r="155" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="282">
         <v>153</v>
       </c>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="P156" s="264"/>
     </row>
-    <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5">
+    <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5" hidden="1">
       <c r="A157" s="282">
         <v>155</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="O157" s="243"/>
       <c r="P157" s="264"/>
     </row>
-    <row r="158" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="158" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A158" s="282">
         <v>156</v>
       </c>
@@ -13495,7 +13495,7 @@
       <c r="O158" s="243"/>
       <c r="P158" s="264"/>
     </row>
-    <row r="159" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="282">
         <v>157</v>
       </c>
@@ -13529,7 +13529,7 @@
       <c r="O159" s="243"/>
       <c r="P159" s="264"/>
     </row>
-    <row r="160" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="160" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A160" s="282">
         <v>158</v>
       </c>
@@ -13557,13 +13557,17 @@
       <c r="I160" s="242"/>
       <c r="J160" s="246"/>
       <c r="K160" s="246"/>
-      <c r="L160" s="242"/>
+      <c r="L160" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M160" s="245"/>
       <c r="N160" s="245"/>
-      <c r="O160" s="243"/>
+      <c r="O160" s="243">
+        <v>42641</v>
+      </c>
       <c r="P160" s="264"/>
     </row>
-    <row r="161" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="282">
         <v>159</v>
       </c>
@@ -13633,7 +13637,7 @@
       </c>
       <c r="P162" s="264"/>
     </row>
-    <row r="163" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="282">
         <v>161</v>
       </c>
@@ -13667,7 +13671,7 @@
       <c r="O163" s="260"/>
       <c r="P163" s="264"/>
     </row>
-    <row r="164" spans="1:16" s="258" customFormat="1" ht="27">
+    <row r="164" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
       <c r="A164" s="282">
         <v>162</v>
       </c>
@@ -13737,7 +13741,7 @@
       </c>
       <c r="P165" s="264"/>
     </row>
-    <row r="166" spans="1:16" s="258" customFormat="1">
+    <row r="166" spans="1:16" s="258" customFormat="1" hidden="1">
       <c r="A166" s="282">
         <v>164</v>
       </c>
@@ -13956,7 +13960,7 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="40.5">
+    <row r="172" spans="1:16" ht="40.5" hidden="1">
       <c r="A172" s="282">
         <v>170</v>
       </c>
@@ -13982,7 +13986,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="94.5">
+    <row r="173" spans="1:16" ht="94.5" hidden="1">
       <c r="A173" s="282">
         <v>171</v>
       </c>
@@ -14046,9 +14050,7 @@
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="450">
   <si>
     <t>编号</t>
   </si>
@@ -5289,6 +5289,10 @@
   </si>
   <si>
     <t>修改过跳转页码程序，不能复现了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科查询功能目前还没有。反查修改了，并且按照1.8规划文档，修改为按“*”键调用反查。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7654,8 +7658,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O160" sqref="O160"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7732,7 +7736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="237" customFormat="1" ht="81" hidden="1">
+    <row r="3" spans="1:16" s="237" customFormat="1" ht="81">
       <c r="A3" s="229">
         <v>1</v>
       </c>
@@ -8002,7 +8006,7 @@
       <c r="O9" s="207"/>
       <c r="P9" s="211"/>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1" ht="40.5" hidden="1">
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="40.5">
       <c r="A10" s="282">
         <v>8</v>
       </c>
@@ -8702,7 +8706,7 @@
       <c r="O28" s="157"/>
       <c r="P28" s="200"/>
     </row>
-    <row r="29" spans="1:16" s="53" customFormat="1" ht="135" hidden="1">
+    <row r="29" spans="1:16" s="53" customFormat="1" ht="135">
       <c r="A29" s="282">
         <v>27</v>
       </c>
@@ -9461,7 +9465,7 @@
       <c r="O48" s="207"/>
       <c r="P48" s="211"/>
     </row>
-    <row r="49" spans="1:16" s="53" customFormat="1" ht="81" hidden="1">
+    <row r="49" spans="1:16" s="53" customFormat="1" ht="81">
       <c r="A49" s="282">
         <v>47</v>
       </c>
@@ -10680,7 +10684,7 @@
       </c>
       <c r="P79" s="211"/>
     </row>
-    <row r="80" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
+    <row r="80" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A80" s="282">
         <v>78</v>
       </c>
@@ -10752,7 +10756,7 @@
       </c>
       <c r="P81" s="200"/>
     </row>
-    <row r="82" spans="1:16" s="53" customFormat="1" ht="54" hidden="1">
+    <row r="82" spans="1:16" s="53" customFormat="1" ht="54">
       <c r="A82" s="282">
         <v>80</v>
       </c>
@@ -10978,7 +10982,7 @@
       <c r="O87" s="266"/>
       <c r="P87" s="271"/>
     </row>
-    <row r="88" spans="1:16" ht="40.5" hidden="1">
+    <row r="88" spans="1:16" ht="40.5">
       <c r="A88" s="282">
         <v>86</v>
       </c>
@@ -11268,7 +11272,7 @@
       <c r="O95" s="266"/>
       <c r="P95" s="271"/>
     </row>
-    <row r="96" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
+    <row r="96" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A96" s="282">
         <v>94</v>
       </c>
@@ -11302,7 +11306,7 @@
       <c r="O96" s="157"/>
       <c r="P96" s="200"/>
     </row>
-    <row r="97" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
+    <row r="97" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A97" s="282">
         <v>95</v>
       </c>
@@ -11334,7 +11338,7 @@
       <c r="O97" s="157"/>
       <c r="P97" s="200"/>
     </row>
-    <row r="98" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
+    <row r="98" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A98" s="282">
         <v>96</v>
       </c>
@@ -11366,7 +11370,7 @@
       <c r="O98" s="157"/>
       <c r="P98" s="200"/>
     </row>
-    <row r="99" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
+    <row r="99" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A99" s="282">
         <v>97</v>
       </c>
@@ -11784,7 +11788,7 @@
       </c>
       <c r="P109" s="271"/>
     </row>
-    <row r="110" spans="1:16" s="85" customFormat="1" ht="40.5" hidden="1">
+    <row r="110" spans="1:16" s="85" customFormat="1" ht="40.5">
       <c r="A110" s="282">
         <v>108</v>
       </c>
@@ -11858,7 +11862,7 @@
       <c r="O111" s="292"/>
       <c r="P111" s="294"/>
     </row>
-    <row r="112" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
+    <row r="112" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A112" s="282">
         <v>110</v>
       </c>
@@ -11892,7 +11896,7 @@
       </c>
       <c r="P112" s="200"/>
     </row>
-    <row r="113" spans="1:16" s="85" customFormat="1" ht="27" hidden="1">
+    <row r="113" spans="1:16" s="85" customFormat="1" ht="27">
       <c r="A113" s="282">
         <v>111</v>
       </c>
@@ -12002,7 +12006,7 @@
       </c>
       <c r="P115" s="271"/>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" ht="40.5" hidden="1">
+    <row r="116" spans="1:16" s="3" customFormat="1" ht="40.5">
       <c r="A116" s="282">
         <v>114</v>
       </c>
@@ -12622,7 +12626,7 @@
       </c>
       <c r="P131" s="200"/>
     </row>
-    <row r="132" spans="1:16" s="139" customFormat="1" hidden="1">
+    <row r="132" spans="1:16" s="139" customFormat="1">
       <c r="A132" s="282">
         <v>130</v>
       </c>
@@ -12696,7 +12700,7 @@
       </c>
       <c r="P133" s="271"/>
     </row>
-    <row r="134" spans="1:16" s="139" customFormat="1" ht="40.5" hidden="1">
+    <row r="134" spans="1:16" s="139" customFormat="1" ht="40.5">
       <c r="A134" s="282">
         <v>132</v>
       </c>
@@ -12728,7 +12732,7 @@
       </c>
       <c r="P134" s="200"/>
     </row>
-    <row r="135" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
+    <row r="135" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A135" s="282">
         <v>133</v>
       </c>
@@ -12760,7 +12764,7 @@
       </c>
       <c r="P135" s="200"/>
     </row>
-    <row r="136" spans="1:16" s="139" customFormat="1" ht="67.5" hidden="1">
+    <row r="136" spans="1:16" s="139" customFormat="1" ht="67.5">
       <c r="A136" s="282">
         <v>134</v>
       </c>
@@ -12832,7 +12836,7 @@
       </c>
       <c r="P137" s="271"/>
     </row>
-    <row r="138" spans="1:16" s="139" customFormat="1" ht="81" hidden="1">
+    <row r="138" spans="1:16" s="139" customFormat="1" ht="81">
       <c r="A138" s="282">
         <v>136</v>
       </c>
@@ -12934,17 +12938,19 @@
       <c r="I140" s="197"/>
       <c r="J140" s="160"/>
       <c r="K140" s="160"/>
-      <c r="L140" s="216"/>
+      <c r="L140" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M140" s="199"/>
-      <c r="N140" s="199" t="s">
-        <v>135</v>
+      <c r="N140" s="262" t="s">
+        <v>449</v>
       </c>
       <c r="O140" s="157">
-        <v>42625</v>
+        <v>42641</v>
       </c>
       <c r="P140" s="200"/>
     </row>
-    <row r="141" spans="1:16" s="139" customFormat="1" ht="54" hidden="1">
+    <row r="141" spans="1:16" s="139" customFormat="1" ht="54">
       <c r="A141" s="282">
         <v>139</v>
       </c>
@@ -13098,7 +13104,7 @@
       </c>
       <c r="P145" s="271"/>
     </row>
-    <row r="146" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
+    <row r="146" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A146" s="282">
         <v>144</v>
       </c>
@@ -13123,7 +13129,7 @@
       <c r="H146" s="10"/>
       <c r="P146" s="264"/>
     </row>
-    <row r="147" spans="1:16" s="139" customFormat="1" hidden="1">
+    <row r="147" spans="1:16" s="139" customFormat="1">
       <c r="A147" s="282">
         <v>145</v>
       </c>
@@ -13148,7 +13154,7 @@
       <c r="H147" s="10"/>
       <c r="P147" s="264"/>
     </row>
-    <row r="148" spans="1:16" s="139" customFormat="1" hidden="1">
+    <row r="148" spans="1:16" s="139" customFormat="1">
       <c r="A148" s="282">
         <v>146</v>
       </c>
@@ -13173,7 +13179,7 @@
       <c r="H148" s="10"/>
       <c r="P148" s="264"/>
     </row>
-    <row r="149" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
+    <row r="149" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A149" s="282">
         <v>147</v>
       </c>
@@ -13196,7 +13202,7 @@
       <c r="H149" s="10"/>
       <c r="P149" s="264"/>
     </row>
-    <row r="150" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
+    <row r="150" spans="1:16" s="139" customFormat="1" ht="27">
       <c r="A150" s="282">
         <v>148</v>
       </c>
@@ -13257,7 +13263,7 @@
       </c>
       <c r="P151" s="264"/>
     </row>
-    <row r="152" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
+    <row r="152" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A152" s="282">
         <v>150</v>
       </c>
@@ -13291,7 +13297,7 @@
       <c r="O152" s="243"/>
       <c r="P152" s="264"/>
     </row>
-    <row r="153" spans="1:16" s="239" customFormat="1" ht="40.5" hidden="1">
+    <row r="153" spans="1:16" s="239" customFormat="1" ht="40.5">
       <c r="A153" s="282">
         <v>151</v>
       </c>
@@ -13325,7 +13331,7 @@
       <c r="O153" s="243"/>
       <c r="P153" s="264"/>
     </row>
-    <row r="154" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
+    <row r="154" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A154" s="282">
         <v>152</v>
       </c>
@@ -13359,7 +13365,7 @@
       <c r="O154" s="260"/>
       <c r="P154" s="264"/>
     </row>
-    <row r="155" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
+    <row r="155" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A155" s="282">
         <v>153</v>
       </c>
@@ -13429,7 +13435,7 @@
       </c>
       <c r="P156" s="264"/>
     </row>
-    <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5" hidden="1">
+    <row r="157" spans="1:16" s="239" customFormat="1" ht="40.5">
       <c r="A157" s="282">
         <v>155</v>
       </c>
@@ -13461,7 +13467,7 @@
       <c r="O157" s="243"/>
       <c r="P157" s="264"/>
     </row>
-    <row r="158" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
+    <row r="158" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A158" s="282">
         <v>156</v>
       </c>
@@ -13495,7 +13501,7 @@
       <c r="O158" s="243"/>
       <c r="P158" s="264"/>
     </row>
-    <row r="159" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
+    <row r="159" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A159" s="282">
         <v>157</v>
       </c>
@@ -13567,7 +13573,7 @@
       </c>
       <c r="P160" s="264"/>
     </row>
-    <row r="161" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
+    <row r="161" spans="1:16" s="239" customFormat="1" ht="27">
       <c r="A161" s="282">
         <v>159</v>
       </c>
@@ -13637,7 +13643,7 @@
       </c>
       <c r="P162" s="264"/>
     </row>
-    <row r="163" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
+    <row r="163" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A163" s="282">
         <v>161</v>
       </c>
@@ -13671,7 +13677,7 @@
       <c r="O163" s="260"/>
       <c r="P163" s="264"/>
     </row>
-    <row r="164" spans="1:16" s="258" customFormat="1" ht="27" hidden="1">
+    <row r="164" spans="1:16" s="258" customFormat="1" ht="27">
       <c r="A164" s="282">
         <v>162</v>
       </c>
@@ -13741,7 +13747,7 @@
       </c>
       <c r="P165" s="264"/>
     </row>
-    <row r="166" spans="1:16" s="258" customFormat="1" hidden="1">
+    <row r="166" spans="1:16" s="258" customFormat="1">
       <c r="A166" s="282">
         <v>164</v>
       </c>
@@ -13960,7 +13966,7 @@
         <v>42640</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="40.5" hidden="1">
+    <row r="172" spans="1:16" ht="40.5">
       <c r="A172" s="282">
         <v>170</v>
       </c>
@@ -13986,7 +13992,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="94.5" hidden="1">
+    <row r="173" spans="1:16" ht="94.5">
       <c r="A173" s="282">
         <v>171</v>
       </c>
@@ -14050,7 +14056,9 @@
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="452">
   <si>
     <t>编号</t>
   </si>
@@ -5293,6 +5293,14 @@
   </si>
   <si>
     <t>百科查询功能目前还没有。反查修改了，并且按照1.8规划文档，修改为按“*”键调用反查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚bug描述的是什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7658,8 +7666,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="N149" sqref="N149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13179,7 +13187,7 @@
       <c r="H148" s="10"/>
       <c r="P148" s="264"/>
     </row>
-    <row r="149" spans="1:16" s="139" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="139" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="282">
         <v>147</v>
       </c>
@@ -13200,6 +13208,15 @@
         <v>182</v>
       </c>
       <c r="H149" s="10"/>
+      <c r="L149" s="258" t="s">
+        <v>450</v>
+      </c>
+      <c r="N149" s="258" t="s">
+        <v>451</v>
+      </c>
+      <c r="O149" s="304">
+        <v>42641</v>
+      </c>
       <c r="P149" s="264"/>
     </row>
     <row r="150" spans="1:16" s="139" customFormat="1" ht="27">
@@ -14052,7 +14069,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="453">
   <si>
     <t>编号</t>
   </si>
@@ -5266,10 +5266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等后鼎提供公共对话框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【设置字体：中字号】
 1.文本文档--目录浏览--内存，"文本样例：文件夹=》中英数叶芝.txt文件，自动播放模式第一页第一行，按9键下一字，仅语音提示“换行”，但是无反显光标。
 【测试结果】第一行按9键下一字切换模式光标没有显示。（按6键下一句也有同样现象）</t>
@@ -5301,6 +5297,14 @@
   </si>
   <si>
     <t>不清楚bug描述的是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后鼎提供的公共对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按跟陈刚协商的规格修改为按【#】键停止当前播放内容，然后播放当前页码。不恢复以前的播放。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7666,8 +7670,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7744,7 +7748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="237" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="237" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="229">
         <v>1</v>
       </c>
@@ -7772,13 +7776,15 @@
       <c r="I3" s="230"/>
       <c r="J3" s="235"/>
       <c r="K3" s="231"/>
-      <c r="L3" s="230"/>
+      <c r="L3" s="230" t="s">
+        <v>60</v>
+      </c>
       <c r="M3" s="234"/>
       <c r="N3" s="234" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="O3" s="231">
-        <v>42616</v>
+        <v>42641</v>
       </c>
       <c r="P3" s="236"/>
     </row>
@@ -12951,14 +12957,14 @@
       </c>
       <c r="M140" s="199"/>
       <c r="N140" s="262" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O140" s="157">
         <v>42641</v>
       </c>
       <c r="P140" s="200"/>
     </row>
-    <row r="141" spans="1:16" s="139" customFormat="1" ht="54">
+    <row r="141" spans="1:16" s="139" customFormat="1" ht="54" hidden="1">
       <c r="A141" s="282">
         <v>139</v>
       </c>
@@ -12986,13 +12992,15 @@
       <c r="I141" s="197"/>
       <c r="J141" s="160"/>
       <c r="K141" s="160"/>
-      <c r="L141" s="216"/>
+      <c r="L141" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M141" s="199"/>
-      <c r="N141" s="199" t="s">
-        <v>135</v>
+      <c r="N141" s="262" t="s">
+        <v>452</v>
       </c>
       <c r="O141" s="157">
-        <v>42625</v>
+        <v>42641</v>
       </c>
       <c r="P141" s="200"/>
     </row>
@@ -13209,10 +13217,10 @@
       </c>
       <c r="H149" s="10"/>
       <c r="L149" s="258" t="s">
+        <v>449</v>
+      </c>
+      <c r="N149" s="258" t="s">
         <v>450</v>
-      </c>
-      <c r="N149" s="258" t="s">
-        <v>451</v>
       </c>
       <c r="O149" s="304">
         <v>42641</v>
@@ -13867,7 +13875,7 @@
       </c>
       <c r="M168" s="262"/>
       <c r="N168" s="262" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O168" s="260">
         <v>42640</v>
@@ -13905,7 +13913,7 @@
       </c>
       <c r="M169" s="262"/>
       <c r="N169" s="262" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O169" s="260">
         <v>42640</v>
@@ -13970,14 +13978,14 @@
         <v>433</v>
       </c>
       <c r="G171" s="221" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H171" s="262"/>
       <c r="L171" s="258" t="s">
+        <v>444</v>
+      </c>
+      <c r="N171" s="258" t="s">
         <v>445</v>
-      </c>
-      <c r="N171" s="258" t="s">
-        <v>446</v>
       </c>
       <c r="O171" s="304">
         <v>42640</v>
@@ -14069,7 +14077,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="454">
   <si>
     <t>编号</t>
   </si>
@@ -5305,6 +5305,10 @@
   </si>
   <si>
     <t>按跟陈刚协商的规格修改为按【#】键停止当前播放内容，然后播放当前页码。不恢复以前的播放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上提示信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7670,8 +7674,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="N150" sqref="N150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12850,7 +12854,7 @@
       </c>
       <c r="P137" s="271"/>
     </row>
-    <row r="138" spans="1:16" s="139" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="139" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="282">
         <v>136</v>
       </c>
@@ -12876,13 +12880,15 @@
       <c r="I138" s="197"/>
       <c r="J138" s="160"/>
       <c r="K138" s="160"/>
-      <c r="L138" s="216"/>
+      <c r="L138" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M138" s="199"/>
-      <c r="N138" s="199" t="s">
-        <v>135</v>
+      <c r="N138" s="262" t="s">
+        <v>453</v>
       </c>
       <c r="O138" s="157">
-        <v>42625</v>
+        <v>42642</v>
       </c>
       <c r="P138" s="200"/>
     </row>
@@ -14077,7 +14083,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="454">
   <si>
     <t>编号</t>
   </si>
@@ -7674,8 +7674,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="P160" s="264"/>
     </row>
-    <row r="161" spans="1:16" s="239" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="239" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="282">
         <v>159</v>
       </c>
@@ -13630,10 +13630,14 @@
       <c r="I161" s="242"/>
       <c r="J161" s="246"/>
       <c r="K161" s="246"/>
-      <c r="L161" s="242"/>
+      <c r="L161" s="259" t="s">
+        <v>60</v>
+      </c>
       <c r="M161" s="245"/>
       <c r="N161" s="245"/>
-      <c r="O161" s="243"/>
+      <c r="O161" s="243">
+        <v>42641</v>
+      </c>
       <c r="P161" s="264"/>
     </row>
     <row r="162" spans="1:16" s="258" customFormat="1" hidden="1">
@@ -14083,7 +14087,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="459">
   <si>
     <t>编号</t>
   </si>
@@ -5325,6 +5325,10 @@
   </si>
   <si>
     <t>自动恢复朗读很困难。按【OK】键是可以恢复的。跟按【#】键一样，不自动恢复朗读。按【ok】和【5】键恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7687,8 +7691,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11361,10 +11365,14 @@
       <c r="I97" s="241"/>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
-      <c r="L97" s="241"/>
+      <c r="L97" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M97" s="241"/>
       <c r="N97" s="241"/>
-      <c r="O97" s="34"/>
+      <c r="O97" s="34">
+        <v>42642</v>
+      </c>
       <c r="P97" s="289"/>
     </row>
     <row r="98" spans="1:16" ht="40.5">
@@ -11396,7 +11404,9 @@
       <c r="L98" s="241"/>
       <c r="M98" s="241"/>
       <c r="N98" s="241"/>
-      <c r="O98" s="34"/>
+      <c r="O98" s="34">
+        <v>42642</v>
+      </c>
       <c r="P98" s="289"/>
     </row>
     <row r="99" spans="1:16" ht="40.5">
@@ -14055,6 +14065,12 @@
       <c r="H172" s="241" t="s">
         <v>436</v>
       </c>
+      <c r="L172" s="219" t="s">
+        <v>458</v>
+      </c>
+      <c r="O172" s="303">
+        <v>42642</v>
+      </c>
     </row>
     <row r="173" spans="1:16" ht="94.5">
       <c r="A173" s="287">
@@ -14119,7 +14135,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="463">
   <si>
     <t>编号</t>
   </si>
@@ -5329,6 +5329,21 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>同#键处理，不自动恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改播报方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7691,8 +7706,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11401,7 +11416,9 @@
       <c r="I98" s="241"/>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
-      <c r="L98" s="241"/>
+      <c r="L98" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M98" s="241"/>
       <c r="N98" s="241"/>
       <c r="O98" s="34">
@@ -11435,10 +11452,14 @@
       <c r="I99" s="241"/>
       <c r="J99" s="28"/>
       <c r="K99" s="28"/>
-      <c r="L99" s="241"/>
+      <c r="L99" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M99" s="241"/>
       <c r="N99" s="241"/>
-      <c r="O99" s="34"/>
+      <c r="O99" s="34">
+        <v>42642</v>
+      </c>
       <c r="P99" s="289"/>
     </row>
     <row r="100" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
@@ -13563,10 +13584,16 @@
       <c r="I158" s="241"/>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
-      <c r="L158" s="241"/>
+      <c r="L158" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M158" s="241"/>
-      <c r="N158" s="241"/>
-      <c r="O158" s="34"/>
+      <c r="N158" s="241" t="s">
+        <v>462</v>
+      </c>
+      <c r="O158" s="34">
+        <v>42643</v>
+      </c>
       <c r="P158" s="289"/>
     </row>
     <row r="159" spans="1:16" ht="27">
@@ -13743,10 +13770,16 @@
       <c r="I163" s="241"/>
       <c r="J163" s="28"/>
       <c r="K163" s="28"/>
-      <c r="L163" s="241"/>
+      <c r="L163" s="241" t="s">
+        <v>459</v>
+      </c>
       <c r="M163" s="241"/>
-      <c r="N163" s="241"/>
-      <c r="O163" s="34"/>
+      <c r="N163" s="241" t="s">
+        <v>460</v>
+      </c>
+      <c r="O163" s="34">
+        <v>42643</v>
+      </c>
       <c r="P163" s="289"/>
     </row>
     <row r="164" spans="1:16" ht="27">
@@ -14096,6 +14129,15 @@
       </c>
       <c r="H173" s="241" t="s">
         <v>436</v>
+      </c>
+      <c r="L173" s="219" t="s">
+        <v>458</v>
+      </c>
+      <c r="N173" s="219" t="s">
+        <v>461</v>
+      </c>
+      <c r="O173" s="303">
+        <v>42643</v>
       </c>
     </row>
     <row r="174" spans="1:16" s="1" customFormat="1" ht="27" hidden="1">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="469">
   <si>
     <t>编号</t>
   </si>
@@ -5344,6 +5344,30 @@
   </si>
   <si>
     <t>修改播报方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花屏不是应用问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加最后一个的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加弹出提示框，进入目录判断是为了可以少操作一次数据库建议接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改逻辑并添加提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上键添加最小判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7706,8 +7730,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="N152" sqref="N152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13380,10 +13404,16 @@
       <c r="I152" s="241"/>
       <c r="J152" s="28"/>
       <c r="K152" s="28"/>
-      <c r="L152" s="241"/>
+      <c r="L152" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M152" s="241"/>
-      <c r="N152" s="241"/>
-      <c r="O152" s="34"/>
+      <c r="N152" s="241" t="s">
+        <v>468</v>
+      </c>
+      <c r="O152" s="34">
+        <v>42643</v>
+      </c>
       <c r="P152" s="289"/>
     </row>
     <row r="153" spans="1:16" ht="40.5">
@@ -13448,10 +13478,16 @@
       <c r="I154" s="241"/>
       <c r="J154" s="28"/>
       <c r="K154" s="28"/>
-      <c r="L154" s="241"/>
+      <c r="L154" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M154" s="241"/>
-      <c r="N154" s="241"/>
-      <c r="O154" s="34"/>
+      <c r="N154" s="241" t="s">
+        <v>466</v>
+      </c>
+      <c r="O154" s="34">
+        <v>42643</v>
+      </c>
       <c r="P154" s="289"/>
     </row>
     <row r="155" spans="1:16" ht="27">
@@ -13480,10 +13516,16 @@
       <c r="I155" s="241"/>
       <c r="J155" s="28"/>
       <c r="K155" s="28"/>
-      <c r="L155" s="241"/>
+      <c r="L155" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M155" s="241"/>
-      <c r="N155" s="241"/>
-      <c r="O155" s="34"/>
+      <c r="N155" s="241" t="s">
+        <v>467</v>
+      </c>
+      <c r="O155" s="34">
+        <v>42643</v>
+      </c>
       <c r="P155" s="289"/>
     </row>
     <row r="156" spans="1:16" s="218" customFormat="1" hidden="1">
@@ -13550,10 +13592,16 @@
       <c r="I157" s="241"/>
       <c r="J157" s="28"/>
       <c r="K157" s="28"/>
-      <c r="L157" s="241"/>
+      <c r="L157" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M157" s="241"/>
-      <c r="N157" s="241"/>
-      <c r="O157" s="34"/>
+      <c r="N157" s="241" t="s">
+        <v>465</v>
+      </c>
+      <c r="O157" s="34">
+        <v>42643</v>
+      </c>
       <c r="P157" s="289"/>
     </row>
     <row r="158" spans="1:16" ht="27">
@@ -13624,10 +13672,16 @@
       <c r="I159" s="241"/>
       <c r="J159" s="28"/>
       <c r="K159" s="28"/>
-      <c r="L159" s="241"/>
+      <c r="L159" s="241" t="s">
+        <v>459</v>
+      </c>
       <c r="M159" s="241"/>
-      <c r="N159" s="241"/>
-      <c r="O159" s="34"/>
+      <c r="N159" s="241" t="s">
+        <v>463</v>
+      </c>
+      <c r="O159" s="34">
+        <v>42643</v>
+      </c>
       <c r="P159" s="289"/>
     </row>
     <row r="160" spans="1:16" s="218" customFormat="1" ht="27" hidden="1">
@@ -13880,10 +13934,16 @@
       <c r="I166" s="241"/>
       <c r="J166" s="28"/>
       <c r="K166" s="28"/>
-      <c r="L166" s="241"/>
+      <c r="L166" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M166" s="241"/>
-      <c r="N166" s="241"/>
-      <c r="O166" s="34"/>
+      <c r="N166" s="241" t="s">
+        <v>464</v>
+      </c>
+      <c r="O166" s="34">
+        <v>42643</v>
+      </c>
       <c r="P166" s="289"/>
     </row>
     <row r="167" spans="1:16" s="237" customFormat="1" ht="27" hidden="1">

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="469">
   <si>
     <t>编号</t>
   </si>
@@ -7730,8 +7730,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="N152" sqref="N152"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9496,9 +9496,7 @@
       <c r="L47" s="241"/>
       <c r="M47" s="241"/>
       <c r="N47" s="241"/>
-      <c r="O47" s="34">
-        <v>42616</v>
-      </c>
+      <c r="O47" s="34"/>
       <c r="P47" s="289"/>
     </row>
     <row r="48" spans="1:16" s="192" customFormat="1" ht="94.5" hidden="1">
@@ -9604,9 +9602,7 @@
       <c r="L50" s="241"/>
       <c r="M50" s="241"/>
       <c r="N50" s="241"/>
-      <c r="O50" s="290">
-        <v>42625</v>
-      </c>
+      <c r="O50" s="290"/>
       <c r="P50" s="289"/>
     </row>
     <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -9868,9 +9864,7 @@
       <c r="L57" s="241"/>
       <c r="M57" s="241"/>
       <c r="N57" s="241"/>
-      <c r="O57" s="34">
-        <v>42616</v>
-      </c>
+      <c r="O57" s="34"/>
       <c r="P57" s="289"/>
     </row>
     <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
@@ -11378,7 +11372,7 @@
       <c r="O96" s="34"/>
       <c r="P96" s="289"/>
     </row>
-    <row r="97" spans="1:16" ht="27">
+    <row r="97" spans="1:16" ht="27" hidden="1">
       <c r="A97" s="287">
         <v>95</v>
       </c>
@@ -11414,7 +11408,7 @@
       </c>
       <c r="P97" s="289"/>
     </row>
-    <row r="98" spans="1:16" ht="40.5">
+    <row r="98" spans="1:16" ht="40.5" hidden="1">
       <c r="A98" s="287">
         <v>96</v>
       </c>
@@ -11450,7 +11444,7 @@
       </c>
       <c r="P98" s="289"/>
     </row>
-    <row r="99" spans="1:16" ht="40.5">
+    <row r="99" spans="1:16" ht="40.5" hidden="1">
       <c r="A99" s="287">
         <v>97</v>
       </c>
@@ -11829,9 +11823,7 @@
       <c r="N108" s="241" t="s">
         <v>218</v>
       </c>
-      <c r="O108" s="34">
-        <v>42616</v>
-      </c>
+      <c r="O108" s="34"/>
       <c r="P108" s="289"/>
     </row>
     <row r="109" spans="1:16" s="251" customFormat="1" ht="27" hidden="1">
@@ -11975,9 +11967,7 @@
       <c r="L112" s="241"/>
       <c r="M112" s="241"/>
       <c r="N112" s="241"/>
-      <c r="O112" s="34">
-        <v>42616</v>
-      </c>
+      <c r="O112" s="34"/>
       <c r="P112" s="289"/>
     </row>
     <row r="113" spans="1:16" ht="27">
@@ -12009,9 +11999,7 @@
       <c r="L113" s="241"/>
       <c r="M113" s="241"/>
       <c r="N113" s="241"/>
-      <c r="O113" s="34">
-        <v>42616</v>
-      </c>
+      <c r="O113" s="34"/>
       <c r="P113" s="289"/>
     </row>
     <row r="114" spans="1:16" s="251" customFormat="1" ht="40.5" hidden="1">
@@ -12705,9 +12693,7 @@
       <c r="N131" s="241" t="s">
         <v>224</v>
       </c>
-      <c r="O131" s="34">
-        <v>42625</v>
-      </c>
+      <c r="O131" s="34"/>
       <c r="P131" s="289"/>
     </row>
     <row r="132" spans="1:16">
@@ -12739,9 +12725,7 @@
       <c r="L132" s="241"/>
       <c r="M132" s="241"/>
       <c r="N132" s="241"/>
-      <c r="O132" s="34">
-        <v>42625</v>
-      </c>
+      <c r="O132" s="34"/>
       <c r="P132" s="289"/>
     </row>
     <row r="133" spans="1:16" s="251" customFormat="1" ht="27" hidden="1">
@@ -12784,7 +12768,7 @@
       </c>
       <c r="P133" s="250"/>
     </row>
-    <row r="134" spans="1:16" ht="40.5">
+    <row r="134" spans="1:16" ht="40.5" hidden="1">
       <c r="A134" s="287">
         <v>132</v>
       </c>
@@ -12808,15 +12792,17 @@
       <c r="I134" s="241"/>
       <c r="J134" s="28"/>
       <c r="K134" s="28"/>
-      <c r="L134" s="241"/>
+      <c r="L134" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M134" s="241"/>
       <c r="N134" s="241"/>
       <c r="O134" s="34">
-        <v>42625</v>
+        <v>42643</v>
       </c>
       <c r="P134" s="289"/>
     </row>
-    <row r="135" spans="1:16" ht="27">
+    <row r="135" spans="1:16" ht="27" hidden="1">
       <c r="A135" s="287">
         <v>133</v>
       </c>
@@ -12840,11 +12826,13 @@
       <c r="I135" s="241"/>
       <c r="J135" s="28"/>
       <c r="K135" s="28"/>
-      <c r="L135" s="241"/>
+      <c r="L135" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M135" s="241"/>
       <c r="N135" s="241"/>
       <c r="O135" s="34">
-        <v>42625</v>
+        <v>42643</v>
       </c>
       <c r="P135" s="289"/>
     </row>
@@ -12877,9 +12865,7 @@
       <c r="L136" s="241"/>
       <c r="M136" s="241"/>
       <c r="N136" s="241"/>
-      <c r="O136" s="34">
-        <v>42625</v>
-      </c>
+      <c r="O136" s="34"/>
       <c r="P136" s="289"/>
     </row>
     <row r="137" spans="1:16" s="251" customFormat="1" ht="40.5" hidden="1">
@@ -13376,7 +13362,7 @@
       </c>
       <c r="P151" s="243"/>
     </row>
-    <row r="152" spans="1:16" ht="27">
+    <row r="152" spans="1:16" ht="27" hidden="1">
       <c r="A152" s="287">
         <v>150</v>
       </c>
@@ -13450,7 +13436,7 @@
       <c r="O153" s="34"/>
       <c r="P153" s="289"/>
     </row>
-    <row r="154" spans="1:16" ht="27">
+    <row r="154" spans="1:16" ht="27" hidden="1">
       <c r="A154" s="287">
         <v>152</v>
       </c>
@@ -13490,7 +13476,7 @@
       </c>
       <c r="P154" s="289"/>
     </row>
-    <row r="155" spans="1:16" ht="27">
+    <row r="155" spans="1:16" ht="27" hidden="1">
       <c r="A155" s="287">
         <v>153</v>
       </c>
@@ -13566,7 +13552,7 @@
       </c>
       <c r="P156" s="243"/>
     </row>
-    <row r="157" spans="1:16" ht="40.5">
+    <row r="157" spans="1:16" ht="40.5" hidden="1">
       <c r="A157" s="287">
         <v>155</v>
       </c>
@@ -13604,7 +13590,7 @@
       </c>
       <c r="P157" s="289"/>
     </row>
-    <row r="158" spans="1:16" ht="27">
+    <row r="158" spans="1:16" ht="27" hidden="1">
       <c r="A158" s="287">
         <v>156</v>
       </c>
@@ -13644,7 +13630,7 @@
       </c>
       <c r="P158" s="289"/>
     </row>
-    <row r="159" spans="1:16" ht="27">
+    <row r="159" spans="1:16" ht="27" hidden="1">
       <c r="A159" s="287">
         <v>157</v>
       </c>
@@ -13796,7 +13782,7 @@
       </c>
       <c r="P162" s="243"/>
     </row>
-    <row r="163" spans="1:16" ht="27">
+    <row r="163" spans="1:16" ht="27" hidden="1">
       <c r="A163" s="287">
         <v>161</v>
       </c>
@@ -13906,7 +13892,7 @@
       </c>
       <c r="P165" s="243"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" hidden="1">
       <c r="A166" s="287">
         <v>164</v>
       </c>
@@ -14133,7 +14119,7 @@
       </c>
       <c r="P171" s="128"/>
     </row>
-    <row r="172" spans="1:16" ht="40.5">
+    <row r="172" spans="1:16" ht="40.5" hidden="1">
       <c r="A172" s="287">
         <v>170</v>
       </c>
@@ -14165,7 +14151,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="94.5">
+    <row r="173" spans="1:16" ht="94.5" hidden="1">
       <c r="A173" s="287">
         <v>171</v>
       </c>
@@ -14237,7 +14223,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="469">
   <si>
     <t>编号</t>
   </si>
@@ -7730,8 +7730,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="O135" sqref="O135"/>
+    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12688,12 +12688,16 @@
       </c>
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
-      <c r="L131" s="241"/>
+      <c r="L131" s="241" t="s">
+        <v>60</v>
+      </c>
       <c r="M131" s="241"/>
       <c r="N131" s="241" t="s">
         <v>224</v>
       </c>
-      <c r="O131" s="34"/>
+      <c r="O131" s="34">
+        <v>42643</v>
+      </c>
       <c r="P131" s="289"/>
     </row>
     <row r="132" spans="1:16">
@@ -14223,7 +14227,7 @@
   <autoFilter ref="A2:P174">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160923.xlsx
+++ b/测试单-电子书_txt-word_160923.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="470">
   <si>
     <t>编号</t>
   </si>
@@ -5368,6 +5368,10 @@
   </si>
   <si>
     <t>上键添加最小判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗读改为弹窗+朗读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7730,8 +7734,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
-      <selection activeCell="J179" sqref="J179"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11892,10 +11896,16 @@
       <c r="I110" s="296"/>
       <c r="J110" s="297"/>
       <c r="K110" s="297"/>
-      <c r="L110" s="101"/>
+      <c r="L110" s="101" t="s">
+        <v>60</v>
+      </c>
       <c r="M110" s="101"/>
-      <c r="N110" s="101"/>
-      <c r="O110" s="298"/>
+      <c r="N110" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="O110" s="298">
+        <v>42643</v>
+      </c>
       <c r="P110" s="299"/>
     </row>
     <row r="111" spans="1:16" s="251" customFormat="1" ht="81" hidden="1">
